--- a/deuChatbot/research_result/version_2(2000_0).xlsx
+++ b/deuChatbot/research_result/version_2(2000_0).xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:L301"/>
@@ -27188,6 +27188,6881 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 주요 정보를 잘 반영하고 있지만, 사고의 전환 종목의 배점이 680점(68%)으로 잘못 기재되어 있습니다. 원본 텍스트에서는 배점이 명시되어 있지 않으므로, 이 부분은 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 배점에 대한 정보에서 불일치가 발생합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기시험에 대한 중요한 요소들을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 배점에 대한 잘못된 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 배점의 부정확성으로 인해 전체적인 품질이 약간 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부 사항에서 부정확성이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장 구조가 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.7535930434568202</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어 진행됩니다. 각 모집단위는 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하여 응시하게 됩니다.
+기초디자인은 다음과 같은 특징을 가지고 있습니다:
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- 실기주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 잠자리와 저울, 콜라병과 계절 등이 있습니다.
+- 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+사고의 전환은 다음과 같은 특징을 가지고 있습니다:
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- 실기주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 콜라병과 계절, 바이러스와 자유 등이 있습니다.
+- 화지크기는 켄트지2절이며, 시간은 5시간입니다.
+각 종목의 배점 비율은 기초디자인이 700점(70%)이고, 사고의 전환은 680점(68%)입니다.</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%입니다."라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 일관되게 전달하고 있지만, 배점 비율에 대한 언급이 추가되어 있어 원본과의 일관성이 떨어집니다. 이로 인해 일부 일관성이 결여된 것으로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 연결이 매끄럽지 않은 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 원본에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 감점이 있었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율의 추가로 인해 의미의 적절성에서 약간의 문제가 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 연결이 매끄럽지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.804024725470965</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%입니다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 제시하며, 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 제시하며, 화지크기는 켄트지2절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 대회 목록을 정확하게 나열하고 있으며, 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 모든 주요 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.9563014413486283</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+배드민턴(남)의 경우:
+1. 한국중·고연맹회장기전국학생선수권대회
+2. 대한배드민턴협회장기전국종별배드민턴선수권대회
+3. 전국학교대항배드민턴선수권대회
+4. 전국종별배드민턴선수권대회
+5. 전국연맹종별배드민턴선수권대회
+6. 전국체육대회
+7. 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+8. 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+1. 춘계한국고등학교축구연맹전
+2. 추계한국고등학교축구연맹전
+3. 대한축구협회장배전국고등학교축구대회
+4. 문화체육관광부장관기전국고등학교축구대회
+5. 문화체육관광부장관배전국고등학교축구대회
+6. 백운기전국고등학교축구대회
+7. 전국고등축구리그(권역별고교축구리그)
+8. 전국고등축구리그왕중왕전
+9. 무학기전국고등학교축구대회
+10. 청룡기전국고등학교축구대회
+11. 백록기전국고등학교축구대회
+12. 금강대기전국고등학교축구대회
+13. 대통령금배전국고등학교축구대회
+14. 금석배전국고등학생축구대회
+15. 부산MBC전국고등학생축구대회
+16. K리그 U18 챔피언십
+17. K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 주제A와 주제B의 내용을 정확하게 반영하고 있으며, 시험 당일 주제 선정 방식도 올바르게 설명하고 있습니다. 그러나 "시각디자인, 산업디자인, 공예디자인"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 방식에 대해 일관성을 유지하고 있지만, "시각디자인, 산업디자인, 공예디자인"이라는 언급이 원본 텍스트와 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제와 관련된 내용이 잘 연결되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 맥락에 맞지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.8062994248697308</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 제시합니다. 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+각 주제는 당일 추첨을 통해 선정됩니다. 예시로 잠자리와 저울의 연결된 주제를 제시하였습니다.</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있지만, "출결, 서류, 면접, 실기 등의 요소가 반영되지 않고"라는 부분은 다소 혼동을 줄 수 있는 표현입니다. 출결 점수는 반영되지 않지만, 다른 요소들은 반영될 수 있습니다. 따라서 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 점에서 일관성을 유지하고 있지만, 추가된 정보가 원문과 상충할 수 있는 여지가 있습니다. 특히 "출결, 서류, 면접, 실기 등의 요소가 반영되지 않고"라는 문장은 원문과의 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 출결 점수의 반영 여부에 대한 질문에 대한 명확한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "출결, 서류, 면접, 실기 등의 요소가 반영되지 않고"라는 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가된 정보가 원문과의 일관성을 떨어뜨릴 수 있어 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있지만, 다른 요소들이 반영되지 않는다는 부분에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 일부 정보의 정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 혼란을 줄 수 있는 점에서 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문구가 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.7587128085192476</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 출결, 서류, 면접, 실기 등의 요소가 반영되지 않고, 전형요소 반영비율(%)에서 출결은 0%로 표시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원인 17명을 정확히 언급하고 있으며, 전형의 종류도 올바르게 설명하고 있습니다. 그러나 "교직에서"라는 표현은 원문에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "교직에서"라는 추가 정보가 원문에 없기 때문에 일관성이 떨어집니다. 이로 인해 원문과의 일관성이 완벽하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주요 정보인 모집 인원과 전형에 대해 직접적으로 언급하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "교직에서"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "교직에서"라는 부분이 추가되어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 모집 인원과 전형에 대한 정보는 정확하지만, "교직에서"라는 표현이 원문에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, "교직에서"라는 표현이 추가되어 의미가 약간 변형되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, "교직에서"라는 표현이 다소 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.8472581729567491</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 인문사회과학대학의 국어국문학과 - 교직에서 가군 수능(일반학생전형)으로 17명을 모집한다고 언급되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 정보가 사실과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 포함되어 있어 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.6437446034505512</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이며, 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 모집 인원에 대한 정보가 정확하게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 완전히 일치하며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.7773394548845104</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.9433151500196971</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 예술고 학생의 지원 가능성에 대한 잘못된 정보를 제공하고 있지만, 지원 조건에 대한 설명을 포함하고 있어 일부 관련성이 있지만, 주제와는 크게 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 완전히 어긋나 있으며, 부적절한 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.6693395752485508</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 그러나 지원 가능한 모집단위는 특정 계열에 제한되므로, 지원을 원하는 학생은 해당 조건을 확인해야 합니다.
+예를 들어, 예술고 학생이 미디어커뮤니케이션학과나 영화학과 등 예체능 계열의 모집단위를 지원할 수 있습니다. 그러나 인문사회과학대학의 중어중국학과, 일본학과 등의 모집단위는 예체능계열의 학생에게는 지원이 제한될 수 있습니다.
+따라서, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하려면, 지원 가능한 계열 및 모집단위를 확인하고 지원 자격을 갖추어야 합니다. 자세한 내용은 공지된 정보나 해당 대학의 입학처 웹사이트를 참조하시기 바랍니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답에서 제시된 기록이 원본 텍스트의 기록과 다릅니다. 원본 텍스트는 218~221 cm라고 명시되어 있지만, 생성된 응답은 268~271 cm로 잘못된 정보를 제공합니다. 배점은 일치하지만, 기록의 부정확성으로 인해 전체적인 사실성이 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 특히 기록 부분에서 상충하는 정보를 제공합니다. 따라서 일관성이 매우 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 여자 제자리 멀리뛰기 4등급의 기록과 배점에 대한 정보를 제공합니다. 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 기록의 부정확성으로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 문장 구조도 명확합니다. 그러나 기록의 부정확성으로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답의 기록 부분이 원본 텍스트와 완전히 다르기 때문에 정확성이 매우 낮습니다. 배점은 정확하지만, 기록의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 일부 차원에서 높은 점수를 받지만, 사실성과 정확성이 매우 낮기 때문에 전체적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 기록 정보로 인해 의미적으로 적절하지 않습니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 높지만, 완벽하지는 않습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.910882978277795</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 268~271cm이며, 배점은 275입니다.</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 정보를 부정확하게 전달하고 있습니다. 원본 텍스트에서 명확히 언급된 12%라는 비율을 무시하고, 해당 정보가 제공되지 않았다고 잘못된 주장을 하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본에서 제공된 정보와 상반된 내용을 포함하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정보의 정확성을 결여하고 있어 관련성이 낮습니다. 원본의 핵심 정보를 무시하고 다른 정보를 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질은 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 논리적 흐름이 부족합니다. 원본의 정보를 반영하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 12%라는 구체적인 정보를 누락하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있습니다. 원본의 정보를 무시하고 다른 방향으로 해석하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성이 결여되어 있어 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.5842328837128716</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 해당 정보에서 동의대학교 경기지도학과 출결 반영 비율에 대한 내용은 제공되지 않았습니다. 더 자세한 정보를 얻으시려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.9032048079434862</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 정원 내 모집 인원이 4명입니다.</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 세부사항(디자인조형학과의 세부 전공)을 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 정보도 원본의 맥락을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 실기고사 일정에 직접적으로 관련이 있으며, 추가된 전공 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.4983764080083655</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024. 01. 17.(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저 학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 점을 반복적으로 강조하고 있습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저 기준에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, "제공된 정보에 따르면"이라는 문구가 다소 어색하게 느껴질 수 있습니다. 그 외에는 문법적으로 문제가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.5187796467944001</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 동의대학교 2024학년도 응용화학과의 수능 최저기준은 없습니다. 각 전형별로 수능 위주로 진행되며, 특정 과목이나 영역에 대한 최저 점수 기준이 설정되어 있지 않습니다.
+만약 더 자세한 정보를 원하시면, https://ipsi.deu.ac.kr/main.do 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보를 명확히 제공하지 않고, 오히려 해당 정보가 언급되지 않았다고 주장하고 있습니다. 이는 사실과 다르며, 원본 텍스트에 명시된 학과 목록을 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 신설된 학과에 대한 구체적인 정보를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 신설된 학과에 대한 질문에 대해 전혀 관련 없는 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 원본 텍스트의 정보와 관련이 없는 내용으로 인해 논리적 흐름이 약해졌습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 신설된 학과에 대한 정보를 전혀 반영하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 적절하지 않은 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 비교적 이해하기 쉬운 구조를 가지고 있으나, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.4262769617480957</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과 정보가 제공된 문장 내에서는 언급되지 않았습니다. 현재 제공된 정보는 2024학년도부터 변화된 학생부 교과성적 반영 방법, 면접평가 방법 및 제출서류 등에 대한 내용입니다.
+만약 동의대학교에서 2024학년도에 신설된 학과에 대해 알고 싶다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고 있으며, 오히려 정보가 없다고 잘못된 주장을 하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련성이 낮습니다. 그러나 웹사이트를 참조하라는 언급은 어느 정도 관련성을 제공하지만, 여전히 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 정보의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 정보의 부정확성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.691040882081517</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에 대한 구체적인 전형요소 반영비율은 제공된 정보에서 확인할 수 없습니다. 추가 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 수능 가산점이 적용되는 모집단위와 수학 과목에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다. 모든 내용이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, "or" 대신 "또는"을 사용하는 것이 더 자연스러울 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따릅니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.8429585013219233</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료·보건·생활, 공과, ICT융합공과대학 모집단위에서 수능 가산점이 적용됩니다. 이들 학과는 수학(미적분 or 기하) 응시자의 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상반된 내용을 담고 있습니다. 학생부 교과성적과 수능 성적을 모두 반영한다고 언급했으나, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서는 수능 성적만을 반영한다고 명시되어 있으나, 생성된 응답에서는 학생부 성적도 포함된다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 잘못된 정보를 포함하고 있어 관련성은 있지만 신뢰할 수 없는 정보로 인해 점수가 낮아졌습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실관계에 대한 정확성이 결여되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.7570892209192173</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 학생부 교과성적과 수능 성적을 모두 반영합니다. 그러나 정확한 수능 성적 반영 방법에 대한 정보가 제공되지 않았습니다. 더 자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 참조해 주세요. 해당 웹사이트에서 최신의 입학 규칙과 절차를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)와 학과 정보를 포함하고 있어 사실과 다릅니다. 원본 텍스트의 정보가 정확히 반영되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 가군 실기고사 날짜를 단일하게 언급하고 있지만, 생성된 응답은 여러 날짜와 학과를 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 주제에서 약간 벗어났습니다. 그러나 여전히 실기고사 날짜에 대한 정보를 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 날짜와 학과를 나열하고 있어 구조적으로 약간의 혼란이 있을 수 있습니다. 정보가 명확하게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜와 추가적인 학과 정보를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가적인 정보가 포함되어 있어 의미적으로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 여러 날짜와 학과 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.6913508124341782</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024. 01. 16.(화)입니다.
+- 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024. 01. 17.(수)입니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과와 경기지도학과가 제외된다는 사실을 누락하고, 레저스포츠학과와 태권도학과가 제외된다고 잘못 언급하고 있습니다. 또한 전형료에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 특히 제외된 학과에 대한 내용이 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 제외된 학과에 대한 정확한 정보를 제공하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 사실적 오류를 포함하고 있으며, 특히 제외된 학과에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.7782472153197987</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외됩니다. 이들 학과는 나군 실기/실적(일반학생전형)에서 모집되며, 전형료는 68,000원입니다.</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일치하는 사실을 포함하고 있으며, 수능 최저기준이 적용되지 않는다는 점을 정확히 전달하고 있습니다. 그러나 "모든 전형 유형에서 공통된 특징입니다"라는 추가 정보는 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일관된 정보를 제공하지만, 추가된 내용이 원문과의 일관성을 약간 해치는 요소로 작용합니다. 원문에서 언급되지 않은 정보가 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 관련된 정보를 잘 다루고 있으며, 주제와 관련된 내용을 포함하고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "이는 모든 전형 유형에서 공통된 특징입니다" 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다. 그러나 추가된 정보가 원문과의 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지만, 추가된 정보가 정확성을 약간 저해합니다. 원문에 없는 내용을 포함하고 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일관성과 정확성에서 약간의 부족함이 있습니다. 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 대부분의 내용이 적절합니다. 그러나 추가된 정보가 원문의 의미와 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 문장이 약간 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.8098372439371366</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 모든 전형 유형에서 공통된 특징입니다. 자세한 내용은 https://ipsi.deu.ac.kr/main.do를 참조하시면 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 학과의 분리 정보를 정확하게 반영하고 있지만, '디자인조형학과(서양화·한국화·환경조형) → 모집중지'라는 내용은 원본 텍스트에 포함되어 있지 않으며, 원본 텍스트의 모든 학과를 포함하지 않고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 포함하고 있지만, 모든 학과를 나열하지 않고 일부 학과의 정보만을 제공하고 있습니다. 이로 인해 일관성이 떨어지며, 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 학부에서 학과로 분리된 내용을 잘 다루고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 정보가 누락되어 있어 완전한 일관성은 부족합니다. 따라서 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 명시된 모든 학과를 포함하지 않으며, 잘못된 정보도 포함되어 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 좋은 점수를 받았습니다. 그러나 사실성과 일관성에서 다소 부족함이 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 적합성은 부족합니다. 따라서 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다. 따라서 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.771985140196816</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과들이 학부에서 학과로 분리되었습니다. 예를 들어, 기계자동차로봇부품공학부는 기계공학과, 로봇·자동화공학과, 자동차공학과로 분리되었습니다.
+다음은 2024학년도에 학부에서 학과로 분리된 일부 학과들입니다:
+1. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+2. 신소재공학부 → 신소재공학과, 고분자나노공학과
+3. 건설공학부 → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+4. 화학환경공학부 → 화학공학과, 환경공학과, 응용화학과
+5. 바이오응용공학부 → 의생명공학과, 바이오의약공학과, 식품공학과
+6. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같은 학과 분리가 이루어졌습니다. 더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수)를 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.8459584470213118</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에서 원서접수(인터넷) 마감일은 2024. 01. 06.(토)까지이며, 마감 시간은 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 2024학년도 전형 요소 변화에 대한 정보를 제공하고 있으며, 반영과목 수와 진로선택과목 성적 반영 기준의 변화를 정확하게 언급하고 있습니다. 그러나 전체 전형 요소 변화에 대한 포괄적인 설명이 부족하여 4점을 부여합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 전형 요소 변화에 대한 정보를 일관되게 전달하고 있습니다. 다만, 원본 텍스트에서 언급된 다른 전형 요소들에 대한 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 직접적으로 관련이 있으며, 전형 요소 변화에 대한 구체적인 정보를 제공하고 있습니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전형 요소 변화에 대한 설명이 명확합니다. 그러나 원본 텍스트의 모든 요소를 포함하지 않아 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트의 모든 세부 사항을 포함하지 않아 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.8041443279796233</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 학생부 교과성적 반영방법입니다. 구체적으로, 2023학년도에는 반영과목이 전 모집단위(한의예과 제외)에서 8과목을 반영하였으나, 2024학년도에는 해당 범위에서 12과목을 반영하게 되었습니다. 또한, 진로선택과목의 성적 반영 기준도 변경되었는데, 2023학년도에는 A: 2등급, B: 4등급, C: 6등급이었으나, 2024학년도에는 A: 1등급, B: 3등급, C: 5등급으로 조정되었습니다.</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라고 명시된 원문과 상충하여, 실기 비중이 35%라고 잘못된 정보를 제공합니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공하므로 일관성이 없습니다. 원문에서 제시된 70%와 생성된 응답의 35%는 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 실기 비중에 대한 정보를 제공하지만, 잘못된 수치를 포함하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 다릅니다. 실기 비중이 70%라는 사실을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.7460883836076039</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 다음과 같습니다.
+- 레저스포츠학과와 태권도학과에서는 실기고사 전형성적 상위자로 선발되며, 실기는 35%의 비중을 차지합니다.
+- 이외의 모든 모집단위에서는 수능이 100%의 비중을 차지하고, 실기는 반영되지 않습니다.
+따라서, 일반적으로 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 35%입니다.</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공의 구성과 관련된 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.8329725315205586</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세 가지 세부 전공으로 구성되어 있습니다. 이들 세부 전공은 다음과 같습니다:
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학
+3. 라이프 생활 문화학
+이러한 세부 전공들은 미래 사회에서 요구되는 다양한 분야의 지식과 기술을 학습할 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 언급하고 있지만, 원본 텍스트에는 '태권도학과'가 포함되어 있지 않습니다. 또한, 실기고사 종목에 대한 정보도 원본 텍스트에 명시되어 있지 않아 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. '태권도학과'와 실기 종목에 대한 언급은 원본 텍스트와 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 실기고사 준비에 대한 언급은 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. '태권도학과'와 실기 종목에 대한 정보는 원본에 없기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았으며, 전반적인 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 잘못된 정보가 포함되어 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.6039994936202222</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 레저스포츠학과와 태권도학과입니다. 이 두 학과에서는 제자리 멀리뛰기 또는 Z-런이라는 종목을 실시하며, 각각 35%의 배점(비율)을 차지합니다.
+따라서, 레저스포츠학과와 태권도학과를 전공하고자 하는 학생들은 실기고사를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 명시된 특정 학과 목록을 포함하지 않고 있습니다. 또한, '학생부교과, 실기/실적 위주전형'이라는 용어는 원본 텍스트에 없으며, 한의예과에 대한 언급도 원본 텍스트와는 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공된 특정 학과 목록을 무시하고 있습니다. 또한, 한의예과에 대한 예외 언급은 원본 텍스트와의 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 지원 가능한 학과 목록에 대한 직접적인 언급이 부족합니다. 따라서 관련성은 있지만, 핵심 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 전체적인 일관성이 떨어집니다. 원본의 핵심 정보가 누락되어 있어 흐름이 약간 어색합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 특히 지원 가능한 학과 목록에 대한 정보가 누락되어 있습니다. 또한, 한의예과에 대한 언급은 원본과 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮으며, 사실성, 일관성, 정확성 모두에서 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 특정 학과 목록이 누락되어 있어 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관계가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.4887405930694889</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '학생부교과, 실기/실적 위주전형'은 대부분의 학과에 적용됩니다. 하지만 한의예과는 예외로, 해당 전형에는 미반영됩니다.
+따라서 실기/실적 위주 전형인 '학생부교과, 실기/실적 위주전형'을 지원하려면, 한의예외를 제외한 대부분의 학과에서 지원이 가능합니다. 구체적인 학과 목록은 동의대학교 입학처 웹사이트를 참조하시거나, 직접 연락하여 확인하시는 것이 좋습니다.
+입학 관련 자세한 정보는 https://ipsi. deu. ac. kr/main. do 를 방문해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0.8569072402869772</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이러한 세 가지 전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나, 농어촌학생전형에 대한 언급이 없고, 특정 학교(과학고, 국제고, 외국어고 등)에 대한 추가 정보가 포함되어 있어 원문과의 일치도가 약간 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 특정 학교에 대한 추가 정보가 포함되어 있어 원문과의 일관성이 떨어집니다. 특히, 농어촌학생전형에 대한 언급이 없어서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 원문에서 다루고 있는 주제와 관련이 깊습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 특정 학교에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, 농어촌학생전형에 대한 정보가 누락되어 있어 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 특정 학교에 대한 추가 정보가 원문과의 의미적 일치를 약간 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.7710962562427474</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형으로 지원이 가능합니다. 
+특수목적고등학교 중에서 과학고, 국제고, 외국어고는 수능 (일반학생전형)으로 지원이 가능하며, 예술고와 체육고도 마찬가지입니다.
+따라서, 특수목적고등학교 학생이라면 동의대학교 일반학생전형에 지원할 수 있습니다. 다만, 지원하려는 전형과 모집단위에 따라 추가적인 자격 요건이 있을 수 있으므로, 공식 홈페이지 (https://ipsi. deu. ac. kr/main. do)를 확인하시거나 대학 입학처와 상담하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시하고 있으며, 모집 인원도 32명으로 정확히 언급되어 있습니다. 그러나 생성된 응답에서는 전혀 다른 학과와 모집 인원을 제시하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원과는 전혀 다른 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요구하는 질문에 대한 답변으로 적절하지 않습니다. 원문에서 언급된 학과와 모집 인원에 대한 정보와는 관련이 없으며, 주제와도 맞지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 이 점수는 다소 낮게 평가될 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원문과의 관련성이 떨어져 전체적인 일관성은 부족합니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않기 때문에 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있으나, 내용의 부정확성으로 인해 전체적인 이해도는 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.6011046751884004</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서는 주로 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과에서 모집 인원이 많습니다. 각 학과별로 모집인원은 7명이며, 이들 학과들은 공통적으로 정원외 모집단위에 해당합니다.
+따라서 가장 많이 모집하는 학과는 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과로 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 지원할 수 없다고 명시되어 있는데, 생성된 응답은 지원이 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 비교했을 때 사실과 다릅니다. 특수목적고등학교 출신자는 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와는 다르게 해석되고 있으며, 잘못된 정보를 바탕으로 하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 내용의 정확성 문제로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.6367031617761523</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 나군 학생부교과(농어촌학생전형)로 지원할 수 있습니다. 하지만 지원 자격은 농어촌 지역에 소재한 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모가 농어촌 지역에 거주한 자여야 합니다.
+따라서, 특수목적고등학교 학생이라면 해당 조건을 충족하는 경우 지원이 가능합니다. 만약 자세한 사항이나 추가적인 정보가 필요하다면 https://ipsi. deu. ac. kr/main. do를 참조하시거나 동의대학교 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와 반대되는 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 이 점수는 다소 낮게 평가될 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름을 유지하지 못합니다. 원본 텍스트의 내용과 상반되는 정보를 제공하기 때문에 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으며, 생성된 응답은 구체적인 수치를 제시하고 있어 정확성이 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 잘못된 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 이 점수는 다소 낮게 평가될 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.5728924528507364</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균으로, **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 평균 성적을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문이 제공하는 정보와는 전혀 다른 내용을 다루고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 원문과의 연결이 부족하여 논리적인 흐름이 약합니다. 원문과의 관계가 명확하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실과 다릅니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0.5055434586442002</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 일부 세부사항이 원본 텍스트와 일치하지 않거나 추가된 정보가 있습니다. 예를 들어, 최초 합격자 등록 날짜와 관련된 정보는 원본에 없으며, 충원 합격자 발표와 등록에 대한 정보가 혼합되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 정보로 인해 일관성이 떨어집니다. 특히, 등록 관련 세부사항이 원본에 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있으며, 주제와 관련이 있습니다. 그러나 추가된 등록 정보는 원본 텍스트의 주요 내용과는 다소 관련이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 나열되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 불일치로 인해 정확성이 떨어집니다. 특히 등록 관련 정보는 원본에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 정확성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 의미가 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 추가된 정보가 원본의 의미와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 추가 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>0.820976964580117</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+- 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 14시
+- 최초 합격자 등록 : 2024년 2월 7일 수요일부터 2월 13일 화요일까지 (은행 마감 시간 내)
+- 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 16시
+- 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 16시
+- 충원 합격자 3차 이후 발표 및 등록 : 개별 전화 통보를 통해 안내되며, 2024년 2월 15일 목요일부터 2월 20일 화요일까지 (오후 18시까지)
+각 합격자 발표는 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 오히려 정보가 없다고 주장하고 있습니다. 그러나 원본 텍스트에는 명확한 면접고사 일정이 명시되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 면접고사 일정이 2024년 1월 20일이라고 명확히 언급하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 면접고사 일정에 대한 질문에 대해 전혀 관련이 없는 정보를 제공합니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다. 원본의 정보와는 전혀 다른 방향으로 전개되고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 면접고사 일정에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 비교적 이해할 수 있으나, 내용이 원본과 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0.3763969404696486</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접고사의 일정 날짜에 대한 구체적인 정보가 없습니다. 따라서, 정확한 날짜와 시간을 알기 위해서는 해당 대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하거나, 직접 입학처로 문의해야 합니다. 면접일정은 합격자 발표 후에 공지되므로, 합격자 명단이 발표된 이후에 확인하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "2024학년도에 한의예과의 최저학력기준이 명시되어 있지 않습니다."라는 표현은 약간의 혼동을 줄 수 있습니다. 최저학력 기준이 아예 없다는 점을 명확히 하고 있지 않기 때문에 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "2024학년도에"라는 특정 연도를 언급함으로써 일관성이 떨어질 수 있습니다. 원문은 특정 연도에 대한 언급이 없기 때문에 이 부분에서 일관성이 부족하다고 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊습니다. 최저학력 기준에 대한 정보와 관련된 내용을 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, "정확한 답변을 제공하기 어렵습니다."라는 문장이 약간 어색하게 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 특정 연도에 대한 언급이 원문과의 연결성을 약간 떨어뜨리므로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지만, 특정 연도에 대한 언급이 정확성을 약간 저해할 수 있습니다. 따라서 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있지만, 특정 연도에 대한 언급이 의미의 적절성을 약간 저해할 수 있습니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 특정 연도에 대한 언급이 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.5886020973586694</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>2024학년도에 한의예과의 최저학력기준이 명시되어 있지 않습니다. 관련 정보가 부족하여 정확한 답변을 제공하기 어렵습니다. 더 자세한 내용을 확인하시려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 전형에서 수능 최저학력 기준이 없다는 점을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 있으며, 수능 최저학력 기준에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 내용을 잘 이어받아 설명하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.5958326811891614</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 모든 전형에서 수능최저학력기준은 없습니다. 따라서 정시 전형으로 지원할 때 수능최저학력기준을 충족해야 하는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정을 정확하게 반영하고 있지만, 3차 이후의 일정에 대한 정보가 원본 텍스트와 다르게 "개별 전화 통보로 이루어집니다"라고 언급되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 제공하지만, 3차 이후 일정에 대한 설명이 원본과 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 충원합격자 발표 일정에 대한 질문에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 나열되어 있습니다. 그러나 3차 이후 일정에 대한 설명이 추가되면서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 1차 및 2차 발표 일정은 정확하지만, 3차 이후 일정에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 사실적 오류로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 3차 이후 일정에 대한 설명이 부적절하여 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 3차 이후 일정에 대한 설명이 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.9099265356566144</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다.
+1차 충원합격자 발표는 2024년 2월 14일(수) 오전 9시입니다.
+2차 충원합격자 발표는 2024년 2월 15일(목) 오전 9시입니다.
+이후의 일정은 개별 전화 통보로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 1차 충원합격자 발표일과 2차 충원합격자 발표일을 정확히 반영하지 않고, 2차 발표일만 언급하고 있습니다. 또한, 3차 이후 발표 일정에 대한 정보는 전혀 포함되어 있지 않아 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 발표 일정과 일치하지 않으며, 특히 1차 발표일과 3차 이후 발표일에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 추가합격자 발표 일정에 대한 질문에 답변하고 있으므로 관련성이 높지만, 원본 텍스트의 모든 정보를 포함하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 작성되어 있어 유창성이 높습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 질문에 대한 답변으로서 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 정확한 발표 일정을 제공하지 않으며, 원본 텍스트의 중요한 세부사항을 누락하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균적이며, 일부 요소는 잘 수행되었지만 사실성과 일관성에서 큰 결함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 질문에 대한 답변으로서 잘 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0.6448176023034742</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정은 2024년 02월 15일(목) 09:00입니다. 이 정보는 전형일정에서 확인할 수 있습니다. 추가적인 질문이 있으시다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 특정 대학의 추가 모집 여부에 대한 명확한 답변을 제공하지 않으며, 이는 원문에서 언급된 내용과 일치하지 않습니다. 원문은 추가 모집이 이루어질 것이라는 정보를 제공하고 있지만, 생성된 응답은 그에 대한 불확실성을 강조하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문은 추가 모집이 있을 것이라고 명시하고 있지만, 생성된 응답은 그에 대한 불확실성을 나타내어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문에서 명시된 추가 모집에 대한 구체적인 내용을 다루지 않고 있습니다. 따라서 관련성은 있지만, 완전하지는 않습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 구성되어 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공하는 정보와 다르게 해석하고 있으며, 이는 정확성에 영향을 미칩니다. 원문은 추가 모집이 있을 것이라고 명시하고 있지만, 생성된 응답은 그에 대한 불확실성을 강조하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 원문과의 일관성 및 정확성 부족으로 인해 전반적인 품질 점수는 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문은 추가 모집에 대한 정보를 제공하고 있지만, 생성된 응답은 그에 대한 불확실성을 강조하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원문과의 연결성이 부족하여 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>0.4687749213908263</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 특정 대학의 추가 모집 여부에 대한 명확한 답변을 드릴 수 없습니다. 추가 모집 여부와 관련된 최신 정보는 해당 대학의 공식 웹사이트를 참조하거나 입학처에 문의하는 것이 가장 정확할 것입니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌, 다른 전형에 대한 정보를 제공하고 있습니다. 제출서류와 평가영역, 면접평가 방법 등에서 많은 차이가 있으며, 원본 텍스트의 내용과 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트에서 언급된 모집단위, 모집인원, 지원자격, 전형요소 반영 비율 등과 관련된 정보가 포함되어 있지 않으며, 다른 전형에 대한 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 원본 텍스트의 주요 내용과는 관련이 적습니다. 일부 정보는 관련이 있지만, 전반적으로 원본 텍스트의 핵심 주제를 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 떨어집니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 구조적으로 일관성이 있지만, 원본 텍스트와의 관련성이 낮아 전체적인 맥락에서의 일관성이 부족합니다. 정보가 서로 연결되어 있지만, 주제가 다르기 때문에 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 많습니다. 제출서류와 평가 기준 등에서 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 관련성도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 의미적으로 적절한 부분도 있지만, 전체적으로는 부적절한 정보가 많습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 정확성과 관련성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0.661099659134703</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 대학 입시에서 평생교육을 받은 성인 학습자를 위한 전형입니다. 이 전형에서는 지원자의 학업역량, 공동체역량, 전공적합성 등을 종합적으로 평가합니다.
+1. **제출서류**:
+   - **학력서류**: 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+   - **보험 서류**: 건강보험자격득실확인서, 국민연금가입증명서, 고용보험자격이력내역서 중 하나
+   - **창업 및 자영업자 서류**: 사업자등록증명원 또는 폐업사실증명원 (국세청 홈텍스 발급), 소득금액증명원
+   - **1차 산업 종사자 서류**: 국가·지방자치단체가 발급하는 공적증명서
+   - **군 경력자 서류**: 주민등록초본
+2. **평가영역 및 배점**:
+   - **공동체역량**: 1등급 140점, 2등급 129.5점, 3등급 119점, 4등급 108.5점, 5등급 98점
+   - **학업역량**: 1등급 280점, 2등급 259점, 3등급 238점, 4등급 217점, 5등급 196점
+   - **전공적합성**: 1등급 280점, 2등급 259점, 3등급 238점, 4등급 217점, 5등급 196점
+3. **면접평가**:
+   - **평가영역**: 학업역량, 전공적합성
+   - **평가요소**: 문제해결능력, 진로정보 탐색능력 등
+   - **평가기준 및 내용**: 지원동기 및 학업계획 발표, 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+4. **부정적 사례**:
+   - 학생이 작성한 학교생활기록부 기재
+   - 동일 내용의 의도적인 반복 기재
+   - 과장된 내용 기재
+   - 학급/단체 단위의 내용 기재
+5. **면접평가 방법**:
+   - **구분**: 개별면접
+   - **시간**: 1인당 10분 이내
+   - **방법**: 입학사정관 2인이 수험생을 대상으로 정성·종합적으로 평가
+   - **절차**: 대기실 → 신분 확인 → 고사장 이동 → 지원동기 발표 → 공통문항 발표 및 질의응답 → 기타사항 확인
+이러한 내용들을 참고하여 평생학습자전형에 대한 자세한 정보를 얻으시길 바랍니다. 더 궁금하신 점이 있으시면 "https://ipsi.deu.ac.kr/main.do"로 접속해 보세요.</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 구체적인 내용을 추가했지만, 원본 텍스트에서 언급된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 핵심 정보를 왜곡하고 있습니다. 또한, 지원 가능한 학교 유형에 대한 정보가 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 지원 자격에 대한 설명이 서로 상충합니다. 원본 텍스트는 특정한 자격 요건을 제시하는 반면, 생성된 응답은 다양한 학교 유형에 대한 정보를 제공하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"에 대한 언급이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 매끄럽지 않으며, 원본 텍스트와의 연결이 약합니다. 각 문장이 독립적으로 존재하는 느낌이 들어 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 지원 자격에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형에 대한 정보를 제공하지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있습니다. 따라서 의미적 적절성 점수가 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 표현이 많습니다. 그러나 일부 정보가 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0.5697636584042831</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원 자격에서는 일반고와 자율고는 지원이 가능합니다. 그러나 특수목적고의 과학고, 국제고, 외국어고, 예술고, 체육고는 지원이 불가능하며, 마이스터고는 지원이 가능합니다. 또한 특성화고의 특성(직업)과 특성(대안), 영재학교, 학력인정고, 방송통신고, 각종학교도 지원이 가능합니다. 검정고시와 외국고는 지원이 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 실기고사에 대한 정보가 아닌 면접 평가에 대한 내용을 포함하고 있으며, 실기고사와 관련된 정보가 전혀 없습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 실기고사에 대한 질문에 대해 면접 평가에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사에 대한 질문에 대해 전혀 관련 없는 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 응답의 내용이 원본 텍스트와 관련이 없기 때문에 논리적인 일관성이 부족합니다. 면접 평가와 실기고사는 서로 다른 주제입니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 주제가 일치하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>0.3342011584765678</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 평가는 입학사정관 2인이 평가위원이 되어 수험생 1명을 대상으로 개별적으로 이루어집니다. 따라서 실기고사는 아닌 것으로 보입니다. 자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 체육학과의 실기고사 종목과 배점에 대한 정보만 제공하고 있습니다. 이는 원본 텍스트의 핵심 정보를 완전히 무시한 것입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트는 입실시간에 대한 정보인데, 생성된 응답은 실기고사 종목에 대한 내용으로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 실기고사 종목에 대한 정보로 주제가 완전히 다릅니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 맥락에서의 유창성은 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 실기고사에 대한 정보는 원본 텍스트에서 요구하는 정보와 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 요구 사항을 충족하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제가 완전히 다릅니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 내용이지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0.217484305004621</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 메디신볼 던지기, 제자리 멀리뛰기, Z-런 중 하나를 치르게 됩니다. 각각의 종목별 배점 비율은 다음과 같습니다:
+1. 메디신볼 던지기: 243점 (23%)
+2. 제자리 멀리뛰기: 240점 (24%) 
+3. Z-런: 230점 (23%)
+따라서 체육학과를 지원하는 학생들은 이 중 하나의 종목을 선택하여 실기고사를 치르게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 개별 전화 통보를 받는다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있으나, 생성된 응답에서는 전화 통보가 이루어진다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서 언급된 내용과는 다르게 전화 통보에 대한 잘못된 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 전화 통보에 대한 잘못된 정보가 응답의 흐름을 방해합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실과 일치하지 않는 내용을 포함하고 있습니다. 전화 통보가 이루어진다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0.6285932166947088</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 것입니다. 이 일정은 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지입니다.
+만약 자세한 내용이 궁금하시다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경찰행정학과에 대한 정보가 제공되지 않는다는 사실을 반영하고 있으며, 관련 정보를 찾기 위해 웹사이트를 참조하라는 내용도 포함되어 있습니다. 그러나 "각 학과의 수시모집 결과와 같은 최신 정보"라는 부분은 원문에 명시된 내용이 아니므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 경찰행정학과에 대한 정보가 없음을 언급하고 있습니다. 그러나 "각 학과의 수시모집 결과"라는 추가 정보는 원문에 포함되어 있지 않으므로 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 경찰행정학과의 수시모집 결과를 찾기 위한 방법을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제공된 정보에서 경찰행정학과에 대한 내용은 없습니다."라는 문장은 조금 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원문과의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 추가된 정보가 원문에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 추가된 정보가 원문에 없기 때문에 약간의 의미적 불일치가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 문장이 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>0.7410083856117965</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경찰행정학과에 대한 내용은 없습니다. 경찰행정학과의 관련 정보를 찾으려면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보세요. 해당 사이트에서는 각 학과의 수시모집 결과와 같은 최신 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 일부 모집단위에서 지원이 가능하다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명시하고 있는데, 생성된 응답은 일부 모집단위에서 지원이 가능하다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 핵심 질문에 대한 직접적인 답변이 부족합니다. 원문에서 명시된 조건을 무시하고 다른 정보를 제공하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약합니다. 원문에서 제시된 조건과 관련된 정보가 명확하게 연결되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 수능에 응시하지 않으면 지원할 수 없다는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 벗어나 있으며, 부적절한 정보를 포함하고 있습니다. 원문의 주제와 관련된 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 원문과의 불일치로 인해 혼란스러울 수 있습니다. 정보가 명확하게 전달되지 않아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0.541143811386102</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시에서 수능을 응시하지 않아도 일부 모집단위에서는 지원이 가능합니다. 예를 들어, 디자인조형학과와 체육학과는 실기고사만으로 지원할 수 있는 경우가 있습니다. 그러나 일반적으로 수능 성적은 많은 모집단위에서 중요한 평가 요소로 사용되므로, 수능 응시 여부에 따라 지원 가능성이 달라질 수 있습니다.
+특정 모집단위의 지원 조건을 확인하려면 해당 대학의 입학처 웹사이트나 전형 안내서를 참조하시거나, 직접 입학처와 문의해보는 것이 좋습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.ipsi.ipsi" 링크로 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 정시 모집에 지원하는 것이 불가능하다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 정시 지원이 가능하다고 명확히 언급하고 있으나, 생성된 응답은 이를 부정하고 다른 전형에 대한 정보만을 제공합니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 질문에 대한 직접적인 답변이 아닌, 다른 전형에 대한 정보로 대체하고 있습니다. 원문에서의 핵심 질문인 정시 지원 가능성에 대한 답변이 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 내용 불일치로 인해 전체적인 맥락이 흐트러질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 전형에 대한 설명은 있지만, 질문에 대한 직접적인 답변이 없기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 정반대의 내용을 담고 있습니다. 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 부정하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서의 질문에 대한 적절한 답변이 아닌, 다른 전형에 대한 정보로 대체되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 불일치로 인해 질문에 대한 명확한 답변이 부족하여 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>0.5790437324597452</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>고등학교 졸업 후 10년이 지났다면, 일반적으로 정시 모집에 지원하는 것은 불가능합니다. 대학입학전형은 고등학교 졸업 후의 연령이나 경과 시간을 기준으로 하지 않고, 학생부종합전형 등 특별전형을 통해 지원할 수 있는 경우가 있습니다.
+나군에서는 농어촌학생전형과 성인학습자전형, 재직자전형 등을 통해 평생학습자 또는 재직자를 대상으로 하고 있으므로, 해당 전형에 지원해 보시는 것이 좋을 것 같습니다. 
+특히 나군의 경우 다음과 같은 특별전형이 있습니다:
+1. **학생부교과(농어촌학생전형)**: 농어촌 지역 거주자에게 특화된 전형입니다.
+2. **학생부종합(평생학습자전형, 성인학습자전형, 재직자전형)**: 이전에 설명한 대로 평생학습자 또는 재직자를 대상으로 합니다.
+이러한 전형을 통해 지원 가능할 수 있으므로, 나군의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하여 자세한 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 2024학년도 정시 일정에 대한 주요 정보를 잘 반영하고 있으나, 일부 세부사항(예: 마감 시간에 대한 구체적인 언급)이 누락되어 있어 완전한 정확성을 보장하지는 않는다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관되며, 주요 일정과 세부사항을 잘 전달하고 있다. 그러나 일부 전형별 마감 시간이 다르게 언급되어 있어 약간의 불일치가 있다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 정시 일정에 대한 질문에 직접적으로 관련된 정보를 제공하고 있어 매우 적절하다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 매끄러움이 떨어진다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽다. 그러나 일부 세부사항이 누락되어 있어 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있으나, 특정 마감 시간에 대한 세부사항이 다르게 언급되어 있어 완전한 정확성을 보장하지는 않는다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있다. 그러나 일부 세부사항의 누락으로 인해 완전한 점수를 주기에는 부족하다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 세부사항이 누락되어 있어 의미 전달이 완전하지는 않다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0.7942562020255849</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 원서를 접수하며, 마감 시간은 각 전형별로 다르게 설정되어 있습니다.
+   - &lt;가&gt;군, &lt;나&gt;군 실기/실적 (일반학생전형): 2024년 1월 6일(토) 오후 6시까지
+   - &lt;나&gt;군 실기/실적 (경기실적우수자전형), &lt;나&gt;군 학생부교과, &lt;나&gt;군 학생부종합: 2024년 1월 6일(토) 오후 5시까지
+3. **서류 제출**: 2024년 1월 3일(수)부터 12일(금)까지 서류를 제출하며, 마감 시간은 각 전형별로 다르게 설정되어 있습니다.
+   - &lt;가&gt;군, &lt;나&gt;군 실기/실적 (일반학생전형): 2024년 1월 12일(금) 오후 5시까지 도착
+   - &lt;나&gt;군 실기/실적 (경기실적우수자전형), &lt;나&gt;군 학생부교과, &lt;나&gt;군 학생부종합: 2024년 1월 12일(금) 오후 4시까지 도착
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표 및 등록: 2024년 2월 2일(금) 오후 2시
+   - 충원 합격자 1차 (인터넷) 발표 및 등록: 2024년 2월 14일(수) 오전 9시부터 오후 4시까지
+   - 충원 합격자 2차 (인터넷) 발표 및 등록: 2024년 2월 15일(목) 오전 9시부터 오후 4시까지
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표 및 등록: 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지
+이상과 같이 동의대학교 정시 일정을 요약하였습니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>0.8243630440788009</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 다음과 같이 설명하겠습니다.
+1. **원서접수(인터넷)**:
+   - **일정**: 2024. 01. 03.(수) ~ 2024. 01. 06.(토)
+   - **마감시간**: 원서 접수 마감은 각 날짜의 18시까지입니다.
+   - **비고**: 원서접수는 입학안내 홈페이지를 통해 진행되며, 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 제출할 수 있습니다. (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 참조)
+2. **서류제출(제출서류가 있는 경우)**:
+   - **일정**: 2024. 01. 03.(수) ~ 2024. 01. 12.(금)
+   - **마감시간**: 서류 제출 마감은 각 날짜의 17시까지입니다.
+   - **비고**: 서류 제출 대상자는 (Ⅳ. 전형별 세부 안내 참조)에 따라 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 제출할 수 있습니다.
+3. **실기고사**:
+   - **&lt;가&gt;군 태권도학과, 레저스포츠학과**:
+     - **일정**: 2024. 01. 16.(화)
+     - **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+   - **&lt;나&gt;군 체육학과, 시각디자인, 산업디자인, 공예디자인**:
+     - **일정**: 2024. 01. 17.(수)
+     - **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+4. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: 2024. 02. 02.(금) 14:00
+     - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+     - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **최초 합격자 등록**: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+     - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **충원 합격자 발표 및 등록**:
+     - **1차 출고**: 2024. 02. 14.(수) 09:00 ~ 16:00
+       - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+       - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+     - **2차 출고**: 2024. 02. 15.(목) 09:00 ~ 16:00
+       - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+       - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+     - **3차 출고**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+       - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+       - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+이상으로 동의대학교 2024년 정시 모집 일정을 설명하였습니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다. (https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원본 텍스트에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원할 수 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 직접적으로 관련된 내용을 다루고 있습니다. 수능 미응시자와 관련된 전형에 대한 정보를 제공하고 있어 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 사실과의 불일치로 인해 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 심각한 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 요소가 있습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 원본의 의미와 완전히 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성이 떨어지기 때문에 이해는 가능하나 잘못된 정보에 기반하고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>0.6720328212395333</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 수능 미응시자도 지원이 가능한 전형이 있습니다. 주요 변경사항을 살펴보면, 학생부종합 평가전형에서 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 지원할 수 있습니다. 이는 수능 미응시자도 지원이 가능한 전형 중 하나입니다.
+따라서, 수능 미응시자도 지원 가능하며, 2024학년도 동의대학교 정시모집에서는 학생부종합(성인학습자(정원내)전형)을 통해 지원할 수 있습니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 잘못된 정보를 제공합니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있으며, 전년도에 36명이 충원 합격했다고 언급하고 있습니다. 그러나 생성된 응답은 3차까지 이루어졌다고 잘못된 정보를 제시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 3차까지 이루어졌다고 주장하고 있습니다. 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 언급된 충원 합격에 대한 질문에 관련된 정보를 제공하고 있습니다. 그러나 잘못된 정보가 포함되어 있어 완전한 관련성을 가지지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 원문과의 연결이 약해져 coherence 점수가 낮아졌습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 잘못된 정보를 포함하고 있어 정확성이 떨어집니다. 원문에서 제공된 정보와 상충합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답은 원문과의 불일치로 인해 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 맥락과 관련이 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 의도를 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>0.6881620349809592</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터에서는 전자공학과의 충원 합격이 3차까지 이루어졌습니다. 그러나 전년도에 대한 정보가 제공되지 않았기 때문에, 전년도에 전자공학과에서 충원 합격이 몇 차까지 이루어졌는지 정확히 알 수 없습니다. 더 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 이는 원본 텍스트의 핵심 정보를 누락한 것입니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 언급되지 않았다고 주장하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전화번호에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 웹사이트 링크를 언급하여 일부 관련성을 유지하고 있으므로 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다. 따라서 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 전혀 포함되어 있지 않기 때문에 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 전화번호에 대한 정보가 없다는 주장은 부적절합니다. 그러나 웹사이트 링크를 언급하여 일부 의미적 적절성을 유지하고 있으므로 점수는 2입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>0.5799963209762928</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要此信息，建议访问东义大学官网或者直接联系学校的招生办公室获取准确的联系方式。更多信息可以参考“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다"는 중요한 사실을 누락하고 있습니다. 또한, 홈페이지에서 결과를 확인할 수 있다는 내용은 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 상충합니다. 원본 텍스트는 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 홈페이지에서 확인할 수 있다고만 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 사항인 등록 포기 처리에 대한 내용을 누락하고 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 일관성이 부족하여 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있어 완전한 적절성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>0.4875453941425459</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 합격자는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행으로 진행합니다.
+따라서 전화 통화가 되지 않더라도 홈페이지와 고지서를 통해 필요한 정보를 얻을 수 있으니, 해당 일정에 맞춰 홈페이지를 확인하시기 바랍니다. 더 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 제출해야 할 서류의 일부를 정확하게 나열하고 있지만, '정원외 최종등록자 추가 제출서류'에 대한 정보는 원본 텍스트에 명시되어 있지 않으며, 고교 졸업증명서에 대한 언급이 부정확합니다. 따라서 일부 사실이 누락되거나 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, '정원외 최종등록자 추가 제출서류'와 같은 새로운 정보를 추가하여 일관성이 떨어집니다. 원본 텍스트의 모든 세부 사항을 포함하지 않기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 제출해야 할 서류에 대한 정보를 명확하게 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 전체적인 일관성이 떨어지므로 완벽한 점수는 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 명시된 모든 세부 사항을 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 중간 수준입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 일관성에서 약간의 문제가 있어 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 추가 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>0.7450077889942112</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시, 유형에 따라 다르게 제출해야 할 서류가 있습니다.
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+3. **정원외 최종등록자 추가 제출서류**:
+   - 고교 졸업증명서
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+위와 같은 서류를 준비해야 합니다. 만약 자세한 내용이나 추가적인 질문이 있다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "6년과정 서류제출이 가능합니다"라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일치하지만, 추가된 정보가 원본 텍스트와 일관되지 않아서 일관성 점수가 낮습니다. 특히, 부모가 농어촌 지역에 거주해야 한다는 조건이 원본에 명시되어 있지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보로 인해 정확성이 약간 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일관성과 정확성에서 약간의 문제가 있어 점수가 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 맥락에 맞지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>0.7960684060514401</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.
+추가로 중·고등학교 재학 시 부모 모두 농어촌 지역에 거주한 자는 6년과정 서류제출이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 잘 반영하고 있으며, 공식 웹사이트를 참조하라는 조언도 포함되어 있어 정확성이 높습니다. 그러나 "저소득 기회균등 전형"이라는 표현이 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 기회균등 전형이 선발되지 않는다는 내용을 전달하고 있습니다. 다만, "최신 변경사항이나 특별한 경우"에 대한 언급이 원문에 명시되어 있지 않아 약간의 일관성 부족이 느껴집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 기회균등 전형에 대한 질문에 적절히 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, "저소득 기회균등 전형"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "최신 변경사항이나 특별한 경우"에 대한 언급이 다소 불필요하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 원문에서 제공하는 정보와 일치하며, 기회균등 전형이 존재하지 않는다는 점을 정확히 반영하고 있습니다. 다만, "저소득 기회균등 전형"이라는 표현이 정확한지에 대한 의문이 남습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답의 의미는 원문과 잘 맞아떨어지지만, "저소득 기회균등 전형"이라는 표현이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 표현이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>0.6075282030432485</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보에서는 정시모집에서 저소득 기회균등 전형이 선발되지 않는 것으로 알려져 있습니다. 하지만 최신 변경사항이나 특별한 경우가 있을 수 있으므로, 공식 웹사이트인 "https://ipsi.deu.ac.kr/main.do"를 참조하시거나 대학 관계자와 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 절사 여부에 대한 정보가 없다는 원문 내용을 왜곡하고 있습니다. 원문에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5등급이 3등급으로 처리된다고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5등급이 절사된다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저등급에 대한 질문에 대한 답변을 시도하고 있지만, 원문에서 제공된 정보와는 관련이 적습니다. 원문은 절사 여부에 대한 정보가 없다고 하였으나, 생성된 응답은 잘못된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 주제를 가지고 있지만, 원문과의 불일치로 인해 논리적 흐름이 약해집니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 잘못된 정보를 포함하고 있습니다. 2.5등급이 절사된다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 요구하는 정보와는 다른 방향으로 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>0.5749592909016371</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사하여 3등급으로 처리됩니다. 한국의 교육 시스템에서는 수능 영어 등급이 정수만 인정되므로, 2.5등급은 3등급으로 반올림하게 됩니다.
+예를 들어, 수능 영역별 표준점수에서 사탐(사회탐구 또는 과학탐구)의 평균산출이 2.5 등급인 경우, 이는 3등급으로 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 발표 일정에 대한 정보가 부정확합니다. 첫 번째 발표일이 2024년 2월 15일로 잘못 기재되어 있으며, 두 번째 발표에 대한 정보도 잘못되었습니다. 원본 텍스트에 따르면 첫 번째 발표는 2024년 2월 14일이고, 두 번째 발표는 2024년 2월 15일입니다. 
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 발표 일정이 서로 다르며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 발표 일정의 정확성이 떨어져서 일부 정보가 잘못 전달되었습니다. 그러나 전체적으로 주제에 대한 언급은 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되었고, 읽기에도 무리가 없습니다. 다만, 일부 표현이 더 매끄럽게 다듬어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 발표 일정의 부정확성으로 인해 전체적인 일관성이 떨어집니다. 
+6. Accuracy Score (1-5): 2
+   - 설명: 발표 일정에 대한 정보가 잘못되어 있어 정확성이 낮습니다. 원본 텍스트의 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 적절하지만, 잘못된 정보로 인해 원본 텍스트의 의도를 완전히 전달하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>0.7918053124378502</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 첫 번째 발표는 2024년 2월 15일(목) 오전 9시에 있으며, 두 번째 발표는 같은 날 오후 9시부터 시작합니다. 마지막으로 세 번째 발표는 2024년 2월 20일(화)까지 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 구체적인 정보를 제공하지 않으며, 추가 합격 가능성에 대한 판단을 어렵게 만든다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 점수와 관련된 정보는 언급하지 않고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 수능 4개 영역 등급이 4.6점일 경우 합격 가능성을 언급하고 있지만, 생성된 응답은 추가 합격 가능성을 판단하기 어렵다고 하여 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 추가 정보를 요청하고 있으며, 관련된 질문을 제기하고 있습니다. 그러나 원본 텍스트의 주요 내용과 직접적으로 연결되지 않는 부분이 있어 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 충분히 반영하지 않고 있으며, 추가 합격 가능성에 대한 판단을 어렵게 만든다고 언급하고 있습니다. 이는 원본 텍스트의 내용을 정확하게 반영하지 않으므로 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 유창성과 관련성에서 좋은 점수를 받았지만, 사실성과 일관성에서 다소 부족한 점이 있어 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 관련된 질문을 제기하고 있습니다. 그러나 원본 텍스트의 구체적인 정보를 충분히 반영하지 않아 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>0.4759043234254515</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 e비즈니스학과의 정시 전형에 대한 모집인원이나 전형요소 반영비율 등의 자세한 내용을 알 수 없습니다. 따라서 e비즈니스학과의 정시 전형에 대해 추가 합격 가능 여부를 판단하기 어렵습니다.
+추가로 필요한 정보들:
+1. e비즈니스학과의 정시 모집인원
+2. e비즈니스학과의 정시 전형요소 반영비율 (특히 수능 성적 비중)
+3. e비즈니스학과의 정시 동점자 처리 기준
+위 정보들을 확인하여, 해당 학생이 e비즈니스학과에 추가로 합격 가능할지 판단해야 합니다.
+더 자세한 내용을 알고 싶으시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋습니다. 해당 사이트에서 e비즈니스학과의 정시 전형에 대한 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 등급 5.3이 높은 점수라고 언급하고 있지만, 원문에서는 이 등급이 e비즈니스학과에 합격하기 어려울 수 있다고 명시하고 있습니다. 따라서, 사실관계에서 일부 불일치가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 정시 등급 5.3이 합격 가능성이 높다고 주장하지만, 원문에서는 이 등급이 평균보다 낮아 합격하기 어려울 수 있다고 설명하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, e비즈니스학과의 정시모집에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 정시 등급 5.3에 대한 해석에서 원문과 상충하는 내용을 포함하고 있어 정확성에서 일부 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 사실관계와 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 사실관계의 불일치로 인해 완전한 적합성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0.7276258948651715</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 정시모집군은 아직 명확히 공개되지 않았습니다. 하지만, 일반적으로 정시모집에서 등급 5.3은 상당히 높은 점수입니다. 이 점수는 대체로 좋은 성적을 보여주며, e비즈니스학과의 입학에 큰 도움이 될 수 있습니다.
+e비즈니스학과의 정시모집군 등급 기준을 확인하기 위해서는 동의대학교의 공식 웹사이트를 참조하거나, 대입 관련 컨설팅 서비스 등을 통해 최신 정보를 얻는 것이 좋습니다. 또한, e비즈니스학과의 전형요소 반영 비율과 학생부 교과성적 반영 방식 등도 고려해야 합니다.
+따라서, 정시 등급 5.3이면 동의대학교 e비즈니스학과에 최초 합격 가능성은 높다고 볼 수 있습니다만, 확실한 답변을 위해서는 동의대학교 공식 웹사이트나 대입 컨설팅 서비스를 통해 최신 정보를 확인하는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 구체적인 정보를 제공하지 않고, 일반적인 평가 기준과 절차에 대한 설명으로 대체하고 있습니다. 이는 원본 텍스트의 핵심 정보를 무시하고 있으며, 따라서 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 38번의 합격 가능성에 대한 명확한 답변을 제공하지 않고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 이를 반박하는 듯한 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않지만, 관련된 평가 기준에 대한 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 평가 기준을 나열하고 있지만, 이들이 원본 텍스트의 질문과 어떻게 연결되는지 명확하지 않습니다. 따라서 일관성이 다소 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다. 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 따라서 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 정보를 제공하지만, 질문에 대한 직접적인 답변이 부족하여 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>0.3766774106918349</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보만으로는 개인의 합격 여부를 정확히 판단하기 어렵습니다. 전형일정과 서류 평가 기준, 면접평가 내용 등을 종합적으로 고려해야 합니다.
+1. **서류 평가**: 공동체역량, 학업역량, 전공적합성 등 다양한 영역에서 점수를 받게 됩니다. 각 영역별로 5등급까지의 점수가 부여되며, 이 점수는 합격 여부에 큰 영향을 미칩니다.
+2. **면접 평가**: 지원동기 및 학업계획, 학업역량, 전공적합성 등 다양한 주제로 질문이 이루어집니다. 면접에서는 답변의 정확성과 탄력성을 중요하게 평가합니다.
+3. **서류 진위 여부 검증**: 서류평가 시 작성된 면접질문지를 활용하여 제출서류의 진위여부를 검증하기 때문에, 허위사실을 기재하지 않아야 합니다.
+이정도면 예비합격 가능할까요?는 개인의 성적, 경험, 답변 등 다양한 요소에 따라 달라집니다. 따라서 다음과 같은 점들을 고려해 보시기 바랍니다:
+- **성적**: 학업역량 평가 영역에서 합격을 위한 최소한의 점수를 얻는 데 필요한 성적이 무엇인지 확인하세요.
+- **경험**: 전공적합성 평가 영역에서 지원전공과 관련된 활동이나 경험을 얼마나 잘 설명할 수 있는지 확인하세요.
+- **답변**: 면접평가에서는 답변의 정확성과 탄력성을 중요하게 평가하므로, 지원동기와 학업계획 등에 대해 구체적으로 준비해 보세요.
+더 자세한 정보를 얻으시려면, 입학안내 홈페이지 (http://ipsi. deu. ac. kr) 또는 http://www. uwayapply. com을 참조하시거나, 직접 입학관리팀과 상담을 받는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 3.44라는 점수로 합격 가능성이 낮다는 주장을 뒷받침하는 근거를 제시하고 있습니다. 그러나 평균 점수와 표준편차에 대한 구체적인 수치는 원본 텍스트에 명시되어 있지 않으므로, 일부 정보는 추가된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가된 정보(경쟁률, 평균 점수 등)가 원본 텍스트와 일치하지 않거나 명확히 언급되지 않은 부분이 있어 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과에 합격 가능성에 대한 정보를 잘 다루고 있습니다. 원본 텍스트의 주요 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 있어 전체적인 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있지만, 추가된 수치(경쟁률, 평균 점수 등)가 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성은 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 정보의 출처가 불명확하여 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 추가된 정보가 원본 텍스트와의 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>0.6065718921439311</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수를 가지고 동의대학교 간호학과에 합격할 확률은 매우 낮습니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 동의대학교 간호학과의 경쟁률이 6.59입니다. 이는 지원 인원이 모집 인원보다 훨씬 더 많은 것을 의미합니다.
+2. **평균 점수 및 표준편차**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다.
+   - 이 값보다 낮은 점수를 가진 지원자는 대부분 불합격할 가능성이 높습니다.
+3. **표준편차**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차는 4.66입니다. 이 값은 점수가 평균을 중심으로 얼마나 퍼져 있는지를 나타내며, 이 경우 점수가 상대적으로 일관성이 높습니다.
+따라서, 3.44라는 점수로는 동의대학교 간호학과에 합격하기 어렵다고 판단할 수 있습니다. 그러나 정시 전형 외에도 다양한 학생부 종합전형이 있으므로, 다른 전형을 통해 합격 가능성 있는지 확인해보는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 성적과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 언급이 없으며, 2.52라는 성적이 낮다고 주장하는 것은 원본 텍스트의 내용과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 2.52라는 성적이 낮다고 언급하는 것은 원본 텍스트에서 제시된 합격 가능성과 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 나열하고 있지만, 전체적으로 일관된 흐름이 부족하여 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 성적에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>0.5507666511071568</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>2.52이라는 성적은 동의대학교 간호학과의 경쟁률과 평균 점수를 고려하면 충분히 낮은 수치입니다. 동의대학교 간호학과의 경우, 최종합격자 중에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이고, 표준 편차는 4.66입니다.
+이러한 상황을 고려하면, 다음과 같은 요인들이 중요합니다:
+1. **개별 성적 분포**: 동의대학교 간호학과의 지원자들 중에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 353.48이고, 표준 편차가 4.66이라는 것을 고려하면, 2.52라는 성적은 상당히 낮은 수치입니다.
+2. **경쟁률**: 동의대학교 간호학과의 경쟁률이 6.59이며, 이는 매우 높습니다. 이에 비해 지원자의 성적이 낮을 경우 충원 합격 확률이 낮아질 수 있습니다.
+3. **면접 평가**: 동의대학교에서는 면접평가를 실시하며, 이 부분에서도 학생들의 전반적인 역량과 적합성을 평가합니다. 따라서 단순히 성적만으로는 최종 합격 확률을 판단하기 어렵습니다.
+4. **서류 평가**: 서류평가에서 지원자의 학업역량, 전공적합성 등을 종합적으로 평가받습니다. 이 부분에서도 좋은 결과를 얻기 위해서는 충분한 준비가 필요합니다.
+따라서 2.52라는 성적만으로는 동의대학교 간호학과 최종 합격 확률이 낮을 것으로 예상됩니다. 그러나 면접 및 서류평가에서 우수한 결과를 얻는다면 최종 합격 가능성은 높아질 수 있습니다.
+추가적으로, 동의대학교의 입학사정관 제도와 블라인드 면접 등 다양한 평가 요소들을 고려하여 지원을 진행하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 정시 모집군에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 합격 가능성에 대한 구체적인 사실을 명확히 반영하지 않고 있습니다. 따라서 일부 사실이 누락되었거나 정확하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성에 대한 명확한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트의 주장을 명확히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집군과 관련된 정보를 제공하고 있으며, 질문에 대한 답변으로서 적절한 내용을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 정시 모집군에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 사실을 정확히 반영하지 못하고 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 맥락에 적합한 내용을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>0.6556718537118216</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집군 변경사항을 보면, 간호학과는 특정 정시 모집군에 속해 있습니다. 그러나 정확한 합격 가능성은 간호학과의 각 정시 모집군별 최저 성적 기준 등 여러 요인에 따라 달라질 수 있으므로, 간호학과의 정시 모집군별 최신 입학성적표를 확인해 보시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 대학의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크에서 더 많은 정보를 확인하실 수 있습니다.
+또한 간호학과에 지원하기 위해서는 간호 관련 지식이나 경험, 그리고 인성 면에서도 좋은 평가를 받는 것이 중요합니다. 따라서 학생부와 서류 준비에도 신경을 써야 합니다.</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 비교하여 합격 가능성에 대한 명확한 판단을 내리지 않고 있습니다. 또한, 수능 영어 등급에 대한 요구 사항이 원본 텍스트와 일치하지 않으며, 2.58이라는 성적이 중등 정도라고 언급한 부분은 다소 모호합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 간호학과의 평균 등급과 관련된 정보가 부족하여 일관성이 떨어집니다. 특히, 수능 영어 등급에 대한 요구 사항이 원본 텍스트와 다르게 제시되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하며, 질문에 대한 답변으로서 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다. 특히, 수능 영어 등급에 대한 요구 사항이 원본 텍스트와 다르게 제시되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>0.6739142901756047</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 확인해보겠습니다.
+간호학과는 주로 다음과 같은 요소를 반영합니다:
+1. **수능 성적**: 영어, 수학, 국어 등급이 중요합니다.
+2. **학생부 교과성적**: 3년 동안의 성적이 반영됩니다.
+3. **면접 결과**.
+간호학과의 정시 모집요강에 따르면:
+- **수능 영어 등급**: 1등급 이상이 필요합니다 (점수 기준으로는 140점 이상).
+- **학생부 교과성적**: 주로 국어, 수학, 영어 등 과목의 성적이 반영됩니다.
+- **면접 결과**.
+현재 제공된 정보만으로는 정확한 판단이 어렵습니다. 하지만 학생부 교과성적이 2.58이라면, 이는 중등 정도의 성적입니다. 간호학과에서는 수능 영어 등급도 중요하게 고려하므로, 영어 등급이 1등급 이상인지 확인해야 합니다.
+**추천 사항:**
+1. **수능 영어 등급 확인**: 1등급 이상인지 확인하세요.
+2. **학생부 교과성적 분석**: 현재 성적이 간호학과의 요구 기준에 미치는지 분석해보세요.
+3. **면접 준비**: 필요하다면 면접 준비를 시작하세요.
+더 자세한 정보나 추가적인 조언이 필요하시다면, 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 게임공학과의 예비 합격 가능성에 대한 정보를 제공하지 않고, 모집단위와 모집인원이 없다고 언급하고 있습니다. 그러나 원본 텍스트에서는 예비 7번의 경우 예비 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 7번에 대한 정보가 누락되어 있습니다. 원본 텍스트는 예비 7번의 합격 가능성을 언급하고 있지만, 생성된 응답은 이를 무시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 게임공학과에 대한 정보를 확인하는 방법을 제안하고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보 제공 방식이 일관되지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 7번에 대한 정보가 누락되어 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 일치성이 낮고, 정보의 정확성 및 관련성이 떨어지므로 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>0.5590536355262531</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 게임공학과에 대한 모집단위와 모집인원이 없습니다. 게임공학과의 경우, 해당 학과가 주어진 정보 내에서 언급되지 않았습니다.
+만약 게임공학과에 대한 모집정보를 확인하려면, 다음과 같은 방법을 추천드립니다:
+1. **입학홈페이지 방문**: https://ipsi. deu. ac. kr/main. do 에 접속하여 입학 정보를 확인합니다.
+2. **문의하기**: 해당 홈페이지의 문의하기 기능을 통해 직접 입학처에 문의해 보세요.
+이러한 방법으로 최신 및 정확한 모집정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 등급 4.16이 게임공학과의 평균 등급 4.78보다 낮다고 잘못 언급하고 있습니다. 원본 텍스트에서는 4.16이 평균 등급보다 높다고 명시하고 있습니다. 이로 인해 사실관계가 크게 왜곡되었습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 4.16이 평균보다 높은 성적이라고 하였으나, 생성된 응답에서는 낮다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 추가 합격 가능성에 대한 다양한 요소를 언급하고 있습니다. 그러나 원본 텍스트의 핵심 사실을 잘못 해석하여 관련성은 있지만 정확한 정보가 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으나, 원본 텍스트와의 사실관계가 맞지 않아 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성은 있지만, 원본과의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 전달하고 있으며, 수능 등급에 대한 잘못된 해석이 포함되어 있습니다. 이로 인해 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실관계, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 관계가 부정확하여 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 사실에 기반하고 있어 의미적으로 적절하지 않습니다. 원본의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 명확한 표현을 사용하고 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>0.7293178793446788</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 게임공학과의 평균 수능 등급(4.78)보다 낮습니다. 따라서, 일반적으로는 추가 합격이 어려울 것으로 예상됩니다. 게임공학과의 경쟁률은 5.33이며, 모집인원은 3명입니다. 이와 같은 상황에서 수능 등급이 평균보다 낮다면 추가 합격 가능성은 매우 낮습니다.
+하지만, 정시 전형에 지원하는 경우에도 다음과 같은 요소들이 고려될 수 있습니다:
+1. **학생부 종합 평가**: 수능 외에도 학생부 종합 평가에서 긍정적인 점수를 받을 수 있는 요소가 있다면 이는 추가 합격 가능성에 도움이 될 수 있습니다.
+2. **면접 성적**: 면접에서도 좋은 성적이 나온다면, 이는 합격 가능성을 높일 수 있습니다.
+따라서, 정시 전형으로 동의대학교 게임공학과를 지원하는 경우에도 수능 등급 외에 학생부 종합 평가와 면접 성적을 잘 준비하고 활용해야 합니다. 
+추가적으로, 동의대학교의 입학사정관이 합격 여부를 결정하기 때문에, 최종 결과는 입학사정관의 판단에 따라 결정될 것입니다.
+더 자세한 정보나 추가 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조하시거나 동의대학교 입학처에 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서는 3.75의 성적이 평균보다 높아 합격 가능성이 높다고 명시하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 정시모집군에 대한 정보가 없다고 주장하지만, 원본 텍스트는 3.75의 성적이 합격 가능성이 높다고 명확히 언급하고 있습니다. 이로 인해 두 텍스트 간에 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과 지원에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 성적과 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 다소 부족하여 일관된 메시지를 전달하지 못하고 있습니다. 특히, 결론 부분이 원본 텍스트의 주제와 연결되지 않는 느낌을 줍니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 3.75의 성적이 합격 가능성이 높다는 정보를 무시하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미를 제대로 전달하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 일부 내용이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>0.6551810726268422</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 지원하려면 정시모집군을 확인해야 합니다. 현재 제공된 정보에서는 정시모집군의 변경사항이 있습니다만, 구체적인 학과와 모집군의 변경 사항은 위에서 모두 나열한 내용 중 일부일 뿐입니다.
+현재 경영정보학과가 2024학년도에 신설되지 않았으며, 정시모집군 변경 사항에서도 경영정보학과 관련된 정보는 없습니다. 따라서 경영정보학과를 지원하려면 해당 학과의 정시모집군을 확인해야 합니다.
+정시모집군은 주로 수능 성적에 따라 결정되며, 3.75라는 GPA가 어느 정시모집군에 해당하는지는 특정한 정보가 없어 판단하기 어렵습니다. 일반적으로 경영정보학과는 가(수능) 또는 나(특성화고 등) 모집군에 속할 수 있습니다.
+따라서, 3.75의 GPA로 경영정보학과를 지원하려면 해당 학교의 정시모집군 변경 사항을 확인하고, 자신의 성적과 모집군 기준을 비교하여 결정해야 합니다. 만약 특정 정보가 필요하다면, 동의대학교의 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 입학처에 문의하시는 것이 좋습니다.
+결론적으로, 현재 제공된 정보만으로는 경영정보학과 정시 성적 3.75로 최초등록자로 가능할지 여부를 판단하기 어렵습니다. 추가적인 정보 확인이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 성적에 대한 언급이 없습니다. 그러나 웹사이트를 통해 확인하라는 조언은 유용하지만, 원본의 구체적인 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 경영정보학과의 평균 성적에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 원본의 결론과는 다른 방향으로 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준을 확인하는 방법에 대한 정보를 제공하므로 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 평균 성적에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 단계별로 절차를 설명하고 있어 일관된 흐름을 유지하고 있습니다. 그러나 원본의 핵심 내용을 충분히 반영하지 못해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 경영정보학과의 평균 성적에 대한 정보가 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부는 유용하지만, 원본의 핵심 사실을 반영하지 않아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 경영정보학과의 정시 성적 기준을 확인하는 방법에 대한 정보를 제공합니다. 그러나 원본의 맥락을 완전히 반영하지는 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본의 핵심 내용을 충분히 설명하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>0.6859691647390018</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 성적 기준을 확인할 수 없습니다. 경영정보학과의 정시 합격 기준은 동의대학교 웹사이트를 통해 확인해야 합니다.
+추가적으로, 최초등록자로 가능 여부는 다음과 같은 절차를 따르면 됩니다:
+1. **동의대학교 웹사이트 방문**: https://ipsi. deu.ac.kr/main.do 에 접속하여 학과별 정시 모집요강을 확인합니다.
+2. **정시 모집요강 확인**: 경영정보학과의 정시 모집요강에서 최초등록자로 가능 여부를 확인합니다.
+3. **성적 기준 확인**: 해당 학과의 정시 성적 기준(예: 4.0 이상)을 확인합니다.
+만약 웹사이트에서 필요한 정보를 찾지 못하면, 동의대학교 입학처에 직접 문의하시거나, 전화로 상담 받으시는 것이 좋습니다.
+더 자세한 내용은 https://ipsi.deu.ac.kr/main.do 에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 5.33이라는 점수가 수능 영어영역 등급이 5에 해당한다고 주장하지만, 원문에서는 5.33이 경영정보학과의 평균 등급보다 낮다고 명시하고 있어 합격 가능성이 낮다고 설명하고 있습니다. 따라서, 사실관계가 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 5.33이 평균 등급보다 낮아 합격 가능성이 낮다고 했으나, 생성된 응답은 합격 가능성이 있다고 주장합니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문에서 제시된 합격 가능성에 대한 정보와는 상반된 내용을 포함하고 있습니다. 그러나 여전히 동의대학교 경영정보학과에 대한 정보를 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상반된 내용을 포함하고 있어 정확성이 낮습니다. 5.33이 평균 등급보다 낮다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 의미가 왜곡된 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0.690597463067137</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수는 수능 영어영역 등급이 5에 해당하는 점수입니다. 동의대학교 경영정보학과의 정시 모집에서는 수능 영어영역 등급이 5 이상인 학생들을 대상으로 합니다.
+따라서, 5.33이라는 점수는 수능 영어영역 등급이 5에 해당하므로 동의대학교 경영정보학과 일반학생전형으로 합격 가능합니다.
+만약 더 자세한 정보나 추가적인 조건을 확인하고 싶다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급에 대한 정보와 지원 가능성에 대한 언급이 있지만, 원본 텍스트에서 제공된 구체적인 수치(영어 등급 평균 3.82, 수능 4개 영역 등급 평균 4.74)에 대한 언급이 부족하다. 또한, 학부의 변경 사항에 대한 정보는 원본 텍스트와 관련이 없으므로 사실성 점수가 낮아졌다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 학부의 변경 사항에 대한 정보가 추가되어 있어 일관성이 떨어진다. 원본 텍스트의 핵심 정보와는 다소 다른 방향으로 나아가고 있다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하고 있으며, 지원 가능성에 대한 언급도 포함되어 있어 관련성이 높다. 그러나 원본 텍스트의 주요 포인트인 평균 등급에 대한 정보가 부족하여 점수가 다소 낮아졌다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있다. 그러나 원본 텍스트와의 연결성이 약해져서 완전한 일관성을 유지하지는 못한다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 수치와 사실을 충분히 반영하지 못하고 있다. 특히, 평균 등급에 대한 정보가 누락되어 있다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 바이오응용공학부에 대한 정보를 제공하고 있다. 그러나 원본 텍스트의 맥락과는 다소 다르게 해석될 수 있는 부분이 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공하고 있다. 그러나 일부 문장이 길어 이해하는 데 시간이 걸릴 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>0.7026883301837905</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+바이오응용공학부는 2024학년도 주요 변경사항에서 학과 분리(학부→학과), 학부 통합, 학과(전공) 명칭 변경으로 바이오의약공학과와 식품공학과로 나뉘었습니다. 따라서 현재는 바이오의약공학과와 식품공학과로 모집되고 있습니다.
+2024학년도 동의대학교 수능(일반학생전형) 최종등록자에서 단과대학은 공과대학이며, 2024학년도 모집단위는 바이오의약공학과와 식품공학과입니다. 지원 인원과 경쟁률 등에 대한 정보를 보면, 경쟁률이 상대적으로 낮지 않고 지원 인원도 많지 않은 편입니다.
+하지만 성적 3.33 정도는 평균적인 수준을 벗어나지 않으므로, 충분히 가능성을 가지고 지원해보시는 것이 좋습니다. 특히 바이오의약공학과와 식품공학과 모두 경쟁률이 낮은 편이라 성적 3.33 정도로도 충분히 합격할 수 있는 기회가 있습니다.
+만약에 더 자세한 정보나 지원 전략을 원하시면, https://ipsi. deu. ac. kr/main. do를 참조해보시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 지원 방법과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 2.8, 수능 4개 영역 3.82)과 현재 정시 등급(4.4)과의 비교를 명확히 하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 지원 방법에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 평균 등급과 합격 가능성에 대한 언급이 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 지원 방법에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 합격 가능성에 대한 정확한 정보를 포함하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 적절한 의미를 전달하고 있지만, 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장은 다소 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>0.62061728986333</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>2024학년도의 모집요강을 보면 방사선학과에 지원하려면 학생부교과 또는 실기/실적 위주 전형을 통해 지원해야 합니다. 현재 제시된 정보만으로는 정확한 답변을 드리기 어렵습니다. 하지만 일반학생전형에서 방사선학과를 지원하기 위해서는 해당 학과의 합격 기준 점수와 자신의 성적을 비교해 보아야 합니다.
+2024학년도에 변경된 학생부 교과성적 반영방법은 전 모집단위(한의예과 제외)에서 12과목을 반영하게 되었습니다. 이 중 방사선학과에 관련된 과목들은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등이 될 것입니다.
+현재의 성적인 4.4정도는 학생부 교과성적 반영방법에 따라 여러 과목을 평균한 점수로 보아야 합니다. 방사선학과의 합격 기준 점수가 어떻게 되는지 확인하시고, 자신의 성적이 합격 기준을 충족하는지 판단해보시기 바랍니다.
+더 자세한 정보를 얻으려면 https://ipsi. deu. ac. kr/main. do 를 참조하거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 반영 과목 수와 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(2.8 및 3.82)과 현재 정시 등급(2.66)의 맥락을 충분히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되었거나 정확하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 합격 기준 점수에 대한 정보를 제공하지만, 원본 텍스트의 내용과는 다소 일치하지 않는 부분이 있습니다. 예를 들어, 원본 텍스트는 2.66이 평균보다 높다고 언급했으나, 생성된 응답에서는 2.66이 좋은 성적이라고만 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 관련된 내용을 다루고 있지만, 원본 텍스트의 주요 질문에 대한 직접적인 답변은 부족합니다. 그러나 방사선학과의 입학 요건에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 반영 과목 수와 관련된 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보는 누락되어 있습니다. 따라서 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 주요 사실과 일치하지 않는 부분이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 정보를 제공합니다. 그러나 원본 텍스트와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>0.6387423034627717</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과에 대한 정보는 주요 변경사항에서 확인하였습니다. 2023학년도에는 반영과목이 전 모집단위(한의예과 제외) 8과목으로, 2024학년도에는 12과목으로 확대되었습니다. 이에 따라 방사선학과를 지원하는 경우 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영받게 됩니다.
+방사선학과의 정시 합격 기준 점수는 모집단위별로 다를 수 있으며, 평균적으로 2.66은 좋은 성적입니다. 하지만 방사선학과는 특정 과목(예: 물리)에 대한 요구가 높을 수 있으므로, 해당 과목의 성적이 좋게 나와야 합니다.
+특히, 2024년부터 반영과목이 늘어난 만큼, 전반적인 학업성적을 고려해야 합니다. 따라서 방사선학과에 지원하는 경우, 물리 등 관련 과목의 성적도 중요하게 고려해야 할 것입니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 대학 입학처와 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적에 대한 정보가 부족하고, 3.66의 성적이 농어촌 전형에서 합격하기 어려울 것이라는 주장은 다소 과장된 것으로 보입니다. 원문에서는 3.66이 평균보다 높은 성적이라고 언급하고 있으며, 경쟁률이 낮아진 점도 긍정적으로 작용할 수 있다고 했습니다. 따라서, 사실과 다소 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 긍정적인 요소들을 간과하고, 3.66의 성적이 합격하기 어려울 것이라는 주장을 하고 있습니다. 원문에서는 희망을 가져도 될 것이라고 하였으나, 생성된 응답은 그와 상반된 내용을 담고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문자의 성적과 관련된 여러 요소들을 언급하고 있어 관련성이 높습니다. 그러나 원문에서 강조한 긍정적인 요소들이 누락되어 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적에 대한 정보가 부족하고, 3.66의 성적이 합격하기 어려울 것이라는 주장은 원문과 상충합니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문자의 상황에 대한 적절한 의미를 전달하고 있으나, 원문에서의 긍정적인 요소들을 간과하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>0.5689246325016493</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>3.66의 성적은 경쟁률과 모집인원에 따라 달라질 수 있지만, 일반적으로 경찰행정학전공의 경우 평균적인 학생들의 성적이 4.0 이상이기 때문에 3.66의 성적만으로는 농어촌 전형에서 합격하기 어려울 것으로 보입니다.
+하지만 정확한 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. 모집인원: 현재 제공된 정보에서는 모집인원이 명시되어 있지 않으므로, 모집인원의 수가 중요합니다.
+2. 경쟁률: 농어촌 전형의 경우 일반적으로 경쟁률이 낮을 수 있지만, 특정 학과나 전공에 따라 달라질 수 있습니다.
+3. 동점자 처리 기준: 동점자 처리 기준이 성적보다는 다른 요소들(예를 들어 면접 성적 등)을 더 중요하게 고려할 수도 있습니다.
+따라서, 정확한 합격 가능성은 "https://ipsi. deu. ac. kr/main. do"에서 공식 정보를 확인하거나, 대학 입학처에 직접 문의하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자의 불확실성과 최종 합격 가능성에 대해 언급하고 있지만, 원문에서 제공된 특정 학과 목록과 예비 25번 이상의 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자의 상황을 설명하고 있지만, 원문에서 제시된 특정 학과에 대한 정보와는 일치하지 않습니다. 예비 25번 이상의 합격 가능성에 대한 정보가 없기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자의 상황과 관련된 정보를 제공하고 있지만, 원문에서 요구하는 특정 학과에 대한 정보는 포함되어 있지 않습니다. 그러나 전반적으로 관련성이 높아 4점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 절차에 대한 설명이 명확합니다. 그러나 원문과의 연결성이 부족하여 4점을 부여합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자의 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제시된 구체적인 사실(예: 특정 학과 목록)이 누락되어 있어 정확성 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 일치성 및 구체적인 정보의 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자의 상황을 적절하게 설명하고 있으며, 의미적으로 적절합니다. 그러나 원문과의 연결성이 부족하여 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 문장이 복잡할 수 있어 4점을 부여합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>0.4481910460638224</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자는 불확실성을 가지고 있습니다. 하지만 아직 최종 합격자 발표가 이루어지지 않았기 때문에, 이전 단계에서의 성적과 서류 평가 결과를 바탕으로 최종 합격 가능성은 존재합니다.
+현재 상황에서는 다음과 같은 절차들이 남아 있습니다:
+1. **서류 제출**: 2024년 1월 3일부터 12일까지 서류를 제출해야 합니다.
+2. **실기고사**: 16일에 &lt;가&gt;군과 17일에 &lt;나&gt;군의 실기고사를 치르게 됩니다.
+3. **합격자 발표 및 등록금 납부**: 2월 2일부터 합격자 발표와 등록금 납부를 진행합니다.
+따라서, 아직 최종 결과가 나오지 않았으므로, 현재의 예비 합격 상태에서 최종 합격 가능성은 존재합니다. 서류 제출과 실기고사 성적을 통해 확실한 판단이 가능해질 것입니다.</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교에 법경찰행정학부가 존재한다고 언급하고 있으며, 이는 원본 텍스트와 상충합니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명확히 언급하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 특히 법경찰행정학부의 존재 여부에 대한 정보가 상충합니다. 이로 인해 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교에 대한 정보를 제공하고 있지만, 법경찰행정학부에 대한 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 그러나 일부 정보는 여전히 관련이 있으므로 점수는 3입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 법경찰행정학부의 존재에 대한 잘못된 정보를 포함하고 있으며, 이는 원본 텍스트의 사실과 완전히 상반됩니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 큰 문제를 가지고 있습니다. 유창성과 관련성에서 다소 긍정적인 점수를 받았지만, 전반적으로 낮은 점수를 주어야 합니다. 따라서 다차원 품질 점수는 2입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히 법경찰행정학부의 존재에 대한 잘못된 정보가 포함되어 있어 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>0.6859704059550502</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 정시로 지원하려는 경우, 정원 내 모집인원은 40명이며, 나군 일반 학생 모집 인원이 7명입니다. 이 정보를 바탕으로 추정해보겠습니다.
+1. **나군 일반 학생의 경우**: 나군 일반 학생 모집 인원이 7명이라는 점을 고려하면, 평균 성적이 높아야 안정적으로 들어갈 수 있을 것입니다. 특히, 경쟁률이 높은 만큼 국어, 수학, 영어 등 주요 과목의 등급이 상위권에 위치해야 합니다.
+2. **나군 일반 학생의 평균 성적**: 나군 일반 학생의 경우, 동점자 처리 기준에서 순위가 1인 경우는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자입니다. 이 중에서도 특히 국어, 수학, 영어 등의 주요 과목의 성적이 높아야 합니다.
+따라서, 동의대학교 법경찰행정학부에 정시로 지원하려면 다음과 같은 평균 성적을 받는 것이 안정권이나 문 닫고 들어갈 가능성을 높일 수 있을 것입니다:
+- **국어**: A+ 등급
+- **수학**: A+ 등급
+- **영어**: A+ 등급
+이러한 성적이 예상되는 경우, 나군 일반 학생으로 안정적으로 지원할 수 있을 것입니다. 그러나 이는 추정이며, 실제 경쟁률과 모집인원에 따라 변동될 수 있으므로, 최종적인 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.
+더 자세한 정보나 추가 질문이 있으시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 영어영역 등급이 5라고 언급하고 있지만, 원본 텍스트에서는 아동학과의 영어 등급 평균이 6.33이라고 명시되어 있습니다. 이는 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 영어 등급과 관련된 정보가 서로 상충하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 정시 모집요강에 대한 정보를 제공하고 있지만, 원본 텍스트의 아동학과에 대한 정보와는 직접적인 관련이 적습니다. 그러나 여전히 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 수능 영어영역 등급에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>0.632395427528792</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 정시 모집요강을 확인해보겠습니다.
+1. **수능 영어영역 등급**: 주어진 정보에서 수능 영어영역 등급이 5이며, 점수는 107입니다.
+2. **반영교과 및 과목**: 보육가정상담학과의 반영 교과 및 과목은 고전, 고전읽기, 국어, 국어생활, 독서, 독서와문법, 문법, 문학, 실용국어, 심화국어, 언어와매체, 작문, 화법, 화법과작문입니다.
+보육가정상담학과의 정시 모집요강을 확인해보면, 수능 영어영역 등급 5는 적합한 범위에 해당합니다. 하지만 합격 여부는 수능 점수뿐만 아니라 다른 반영 교과 성적 및 지원자의 전반적인 자질도 고려됩니다.
+주어진 정보만으로 판단하면, 수능 영어영역 등급이 5이고 점수가 107인 경우 보육가정상담학과에 합격할 가능성이 높습니다. 하지만 최종 합격 여부는 동의대학교에서 발표하는 정시 모집결과를 확인해야 합니다.
+만약 추가 정보나 자세한 지원요건이 필요하다면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 충원 합격자 발표와 관련된 정보를 포함하고 있지만, 2023년도와 2024학년도에 대한 혼동이 있습니다. 예비 12번에 대한 합격 가능성에 대한 언급은 적절하지만, 2024학년도 모집단위와 수능 반영방법에 대한 정보는 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 2023년도와 2024학년도에 대한 정보가 혼합되어 있어 일관성이 떨어집니다. 예비 번호에 대한 설명은 일관되지만, 다른 정보는 원본과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 12번에 대한 합격 가능성에 대한 질문에 어느 정도 관련이 있지만, 추가된 수능 반영방법과 모집단위 정보는 질문의 핵심과는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 주제 간의 연결이 약해 전체적인 일관성이 떨어집니다. 특히, 수능 반영방법에 대한 정보가 갑작스럽게 추가되어 흐름이 끊기는 느낌을 줍니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 2023년도와 2024학년도에 대한 혼동이 있어 정확성이 떨어집니다. 예비 12번에 대한 합격 가능성에 대한 설명은 적절하지만, 다른 정보는 불필요합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 혼동과 일관성 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 질문의 맥락과 맞지 않아 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>0.561219810584511</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 모집단위와 수능 반영방법을 확인해보겠습니다. 
+현재 제공된 정보에 따르면, 보육가정상담학과는 2023년도에는 충원 합격 3차에서 예비 12번을 받았습니다. 하지만 2024학년도의 모집단위와 수능 반영방법은 다음과 같습니다:
+- **모집단위**: 보육가정상담학과
+- **수능 반영영역**: 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 중 영역 관계없이 2개 과목)
+- **반영비율**: 각 영역별 25%
+이 정보만으로는 정확한 합격 가능성 예측을 하기 어렵습니다. 예비 12번의 경우, 실제 합격 가능성을 결정하는 요인은 수능 성적, 모집정원, 경쟁률 등 다양한 요소에 의해 좌우됩니다.
+따라서, 더 자세한 정보를 얻으시려면 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 입학처와 연락을 취하시는 것이 좋습니다. 입학처에서는 최신 정보와 정확한 합격 가능성 예측을 제공해 주실 것입니다.</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 유아교육학과 입학에 긍정적인 영향을 미칠 수 있다고 언급하지만, 유아교육학과의 평균 성적이 4.18이라는 사실을 간과하고 있습니다. 따라서, 성적이 높다고만 해서 지원이 가능하다고 단정할 수 없으며, 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 필요한 다양한 요소들을 언급하고 있지만, 원본 텍스트에서 제시된 유아교육학과의 평균 성적과의 일관성이 부족합니다. 원본 텍스트는 4.75의 성적이 유아교육학과에 지원하기 어려울 것이라고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대한 질문에 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때, 약간의 관련성이 떨어지는 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 유아교육학과에 대한 다양한 요소들을 체계적으로 설명하고 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 평가 요소들을 잘 설명하고 있지만, 원본 텍스트의 평균 성적과의 관계를 명확히 하지 않아 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 종합적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 적절한 의미를 전달하고 있으며, 관련된 요소들을 잘 설명하고 있습니다. 그러나 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 설명이 이루어졌습니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>0.7373592020008546</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 일반적으로 대학의 학생부종합 평가에서 고득점은 긍정적인 영향을 미치지만, 유아교육학과에 입학하기 위해서는 단순히 학업성적이 높다고만 하면 부족합니다.
+유아교육학과의 경우 다음과 같은 요소들이 중요하게 작용합니다:
+1. **인성**: 유아교육은 인간 관계와 소통이 중요한 분야입니다.
+2. **공동체역량**: 유아를 돌보는 데에는 팀워크가 필요하며, 공동체에서 활동하는 능력이 요구됩니다.
+3. **학업역량**: 교육 이론과 실제 교육 경험을 이해하고 적용할 수 있는 능력이 중요합니다.
+4. **전공적합성**: 유아교육에 대한 열정과 전문성을 갖추고 있어야 합니다.
+따라서 4.75라는 높은 성적이 유아교육학과 입시에서 큰 도움을 줄 수 있지만, 인성, 공동체역량, 학업역량 등 다양한 평가 영역에서 좋은 점수를 받는 것이 중요합니다.
+만약에 면접평가에서도 우수한 성적을 얻었다면 더욱 유리할 것입니다. 따라서 4.75라는 높은 성적이 유아교육학과 입시에서 도움이 될 수 있지만, 전반적인 평가 영역에서 좋은 점수를 받는 것이 중요합니다.
+더 자세한 정보나 조언이 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과의 평균 등급과 관련된 정보가 잘못되었으며, 영어 등급 평균이 2.34로 제시되었으나, 이는 원본 텍스트와 일치하지 않습니다. 또한, 경쟁률과 모집 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 관련성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본 텍스트는 보육가정상담학과의 평균 등급에 대한 정보만을 제공하고 있으며, 생성된 응답은 다른 학과의 정보와 혼합되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 일부 관련 정보를 포함하고 있지만, 원본 텍스트의 핵심 내용과는 거리가 있습니다. 보육가정상담학과에 대한 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답의 정보는 원본 텍스트와 일치하지 않으며, 잘못된 평균 등급과 경쟁률 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 정보의 혼합으로 인해 일부 부분에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0.4955271772777726</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과 일반학생전형에 대한 정보를 확인해보겠습니다.
+- 모집인원: 37명
+- 지원인원: 145명
+- 경쟁률: 6.59 (145 / 37)
+- 충원 합격 (후보순위): 37명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이며, 영어 등급의 평균은 2.34입니다.
+현재您的问题似乎与之前提供的关于东国大学的信息不符。您提到的保育·家政咨询学（现在称为“아동학”）的信息并未包含在之前的统计数据中。不过，根据您提供的信息，我们可以进行一些推断。
+首先，您的换算等级为4.16，在2024年东国大学保育·家政咨询学的平均换算等级为353.48，而您的英语等级为2.34（低于平均值）。虽然这些数据不能直接预测您是否会被录取，但可以提供一些参考。
+- 您的换算等级高于该专业的平均换算等级。
+- 但是，您的英语等级低于该专业的平均英语等级。
+考虑到竞争率较高（6.59），并且需要综合考虑多个因素如面试成绩、个人陈述等，建议您：
+1. **详细了解录取标准**：包括但不限于换算等级、英语等级、面试表现等。
+2. **准备充分的申请材料**：确保您的个人陈述和推荐信能够突出您的优势。
+3. **参加模拟面试**：如果学校有提供模拟面试的机会，请务必参与，以提高实际面试的表现。
+最后，建议您访问东国大学官方网站或联系招生办公室获取最准确的信息。如果您需要进一步的帮助或有其他问题，欢迎随时提问！</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 완전히 무시하고 있으며, 소프트웨어공학부가 정시모집을 한다고 잘못된 정보를 제공하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 소프트웨어융합학과가 정시로 지원할 수 없다고 명시하고 있지만, 생성된 응답은 정시모집이 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문과 관련이 없으며, 소프트웨어융합학과에 대한 정보 대신 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 이는 질문의 핵심 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 소프트웨어융합학과에 대한 질문에 소프트웨어공학부의 정보를 제공하는 것은 일관성을 해칩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실적으로 부정확하며, 소프트웨어융합학과의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 매우 부적절합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 명확하게 작성되었지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>0.4270623155323288</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부는 정시모집으로 모집되고 있습니다. 지원을 위해서는 평균적으로 3.77등급 정도의 영어 점수와 4.49등급 정도의 수능 4개 영역 등급이 필요합니다.
+이는 주요 통계에서 얻은 정보이며, 실제 경쟁률과 모집인원에 따라 요구되는 점수가 변동될 수 있으므로, 최종적인 지원 자격을 확인하기 위해서는 대학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 학교 관계자와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 서류 평가와 면접의 중요성을 언급하고 있습니다. 그러나 세특 내용의 비중에 대한 언급이 다소 모호하게 표현되어 있어, 정확한 사실을 완전히 반영하지는 못하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류 평가와 면접의 중요성을 강조하고 있습니다. 다만, 세특 내용의 비중에 대한 설명이 원본과 약간의 차이를 보이고 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 지원 준비에 대한 구체적인 사항을 제시하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있었던 점이 아쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 세특 내용의 비중에 대한 설명이 다소 모호하여 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 세특 내용의 비중에 대한 설명이 다소 애매하게 표현되어 있어 의미 전달에서 약간의 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 더 간결하게 표현될 수 있었던 점이 아쉽습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>0.6577411598177453</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수가 학생부종합전형에서 중요한 요소입니다. 하지만 세특 내용이 더 많은 비중을 차지하는 것은 아닙니다. 서류 평가에서는 학교생활기록부를 중심으로 평가되며, 면접에서도 서류와 관련된 질문들이 주로 이루어집니다.
+따라서, 소프트웨어융합학과에 지원하려면 다음과 같은 준비가 필요합니다:
+1. **학교생활기록부**: 이는 학업역량, 공동체역량, 전공적합성 등 평가영역에서 중요한 역할을 합니다.
+2. **면접 준비**: 면접에서는 지원동기와 학업계획, 학업역량, 전공적합성 등을 주로 질문합니다. 이에 대한 답변을 미리 준비해야 합니다.
+3. **서류 준비**: 서류 평가에서 요구되는 서류를 정확하게 준비해야 합니다. 예를 들어, 고교 졸업(예정)자인 경우 학교생활기록부 1부와 검정고시출신자는 검정고시 합격증서 사본 또는 합격증명서 1부 등을 제출해야 합니다.
+4. **세특 내용**: 세특 내용은 지원동기에 큰 영향을 미치므로, 자신의 경험과 열정을 잘 표현할 수 있는 세특 내용을 준비하는 것이 중요합니다.
+5. **면접 점수**: 면접에서도 학업역량과 전공적합성을 평가하므로, 이에 대한 답변을 준비해야 합니다.
+이러한 준비를 통해 지원자의 합격 확률을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 경쟁률과 평균 점수에 대한 구체적인 수치를 제공하고 있지만, 이 수치들은 원본 텍스트에 명시된 정보와 일치하지 않습니다. 원본 텍스트는 4.08의 성적이 최초합격자의 평균 등급보다 약간 높은 수준이라고 언급하고 있으며, 최초합격 가능성이 있다고도 합니다. 그러나 생성된 응답은 4.08 성적이 합격하기 어렵다고 주장하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 포함하고 있습니다. 원본 텍스트는 4.08의 성적이 최초합격 가능성이 있다고 언급하는 반면, 생성된 응답은 이를 부정하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 동의대학교 소프트웨어공학부의 합격 가능성에 대한 정보를 제공합니다. 그러나 일부 세부 사항은 원본 텍스트와 관련이 없거나 과도하게 상세합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 경쟁률과 평균 점수에 대한 수치가 잘못된 것으로 보입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 사실과 일치하지 않는 주장을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 세부 사항이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>0.7847254683637372</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>4.08이라는 성적을 가지고 동의대학교 소프트웨어공학부에 최초합격하는 것은 어렵다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 소프트웨어공학부의 경쟁률이 4.87으로 매우 높습니다. 이는 지원자가 많은데 모집인원이 적기 때문에 낮은 점수로 합격하기 어렵다는 것을 의미합니다.
+2. **평균점수**: 최초합격자들의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 330.11입니다. 이는 4.08보다 훨씬 높습니다.
+3. **표준편차**: 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차가 9.08입니다. 이는 성적 분포가 넓다는 것을 의미하며, 평균보다 낮은 점수로도 합격할 수 있지만 확률이 매우 낮습니다.
+따라서, 4.08이라는 성적을 가지고 동의대학교 소프트웨어공학부에 최초합격하는 것은 현실적으로 어렵다고 볼 수 있습니다. 더 높은 점수를 얻는 것이 합격 확률을 향상시키는 가장 좋은 방법일 것입니다.
+만약 추가 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 최신 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 없다는 원문 내용을 무시하고, 소프트웨어공학부에 대한 구체적인 지원 인원과 경쟁률을 언급하고 있습니다. 이는 원문과 관련이 없으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문은 소프트웨어융합학과에 대한 정보만을 제공하고 있으며, 소프트웨어공학부에 대한 정보는 원문에 포함되어 있지 않습니다. 따라서 두 텍스트 간에 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원문과 관련이 적습니다. 원문은 소프트웨어융합학과에 대한 정보에 집중하고 있지만, 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하고 있어 주제와 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 소프트웨어융합학과와 소프트웨어공학부 간의 전환이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와는 다른 내용을 포함하고 있으며, 소프트웨어융합학과에 대한 정확한 정보를 제공하지 않고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 드러나며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문이 소프트웨어융합학과에 대한 정보를 제공하는 반면, 생성된 응답은 다른 학과에 대한 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 주제의 일관성이 부족하여 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>0.5545922725047777</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 지원 인원이 146명이고 경쟁률이 4.87입니다. 평균 5등급을 가지고는 충분히 합격 가능성이 있습니다만, 실제 경쟁률과 지원자의 수준 등 다양한 요인들이 고려되어야 합니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이고, 이는 비교적 높은 점수입니다. 따라서 평균 5등급만으로는 확실한 합격을 보장받기는 어렵습니다.
+하지만, 평균 5등급이면 상대적으로 좋은 성적을 보여주고 있어 충분히 경쟁력을 갖추고 있습니다. 실제 입학사정관의 평가와 지원자의 수준 등 다양한 요인들이 고려되기 때문에, 확실한 합격 여부는 정시모집 결과를 통해 확인해야 합니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.28이라는 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높다고 판단했으나, 생성된 응답은 이 성적이 매우 낮다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 4.28이 합격 가능성이 높다고 언급했지만, 생성된 응답은 반대로 매우 낮다고 주장하고 있습니다. 이러한 상충은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 결론과는 다르게 해석하고 있습니다. 그러나 경쟁률, 평균 등급 등 추가 정보를 제공하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 상충으로 인해 전체적인 일관성이 떨어집니다. 각 항목이 잘 연결되어 있으나, 결론이 원본과 다르기 때문에 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서 제시된 성적에 대한 해석이 잘못되었으며, 이는 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 불일치가 많아 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 해석으로 인해 의미 전달이 부정확합니다. 원본의 의도를 잘못 이해하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>0.6492036745119641</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 확률은 매우 낮습니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 신소재공학과의 경쟁률이 1.45이며, 지원 인원이 81명이고 모집인원이 56명이라는 점을 고려하면, 합격하기 위해서는 매우 높은 성적을 요구합니다.
+2. **평균 등급**: 신소재공학과의 수능 4개 영역 등급 평균은 5.78입니다. 이는 4.28보다 훨씬 높습니다.
+3. **표준 변환 점수 합 평균**: 신소재공학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 378.15입니다. 이 역시 4.28보다 높습니다.
+따라서, 4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격하기는 매우 어려울 것으로 예상됩니다. 그러나 정확한 합격 여부는 최종 등록자들의 성적 분포와 경쟁률 등을 고려하여 결정되므로, 해당 정보를 확인하는 것이 좋습니다.
+더 자세한 정보나 추가 지원 방법에 대한 궁금증이 있다면, [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 언급하고 있지만, 일부 학교에서 요청할 수 있다는 추가 정보를 제공하고 있습니다. 그러나 이는 원문에서 명확히 언급되지 않은 내용이므로, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 자기소개서가 필요 없다는 점과 일부 학교에서 요청할 수 있다는 점이 서로 상충할 수 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 관련된 내용을 잘 다루고 있으며, 수능 일반학생전형에 대한 정보를 제공하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 약간의 중복된 정보가 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하지만, 자기소개서가 필요 없다는 원문의 주장을 완전히 반영하지 못하고 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 특히 관련성과 유창성에서 좋은 점수를 받았습니다. 그러나 사실성과 일관성에서 약간의 문제가 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하고 있습니다. 다만, 일부 추가 정보가 원문과의 일관성을 떨어뜨릴 수 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 약간의 복잡한 표현이 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0.6520034370123673</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 하지만 일부 학교에서 자기소개서를 제출하도록 요청할 수도 있으므로, 지원하는 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 확인하여 자세한 정보를 얻는 것이 좋습니다.
+일반적으로 수능 일반학생전형에서는 학생부 성적, 수능 점수 등이 주요 평가 기준이 되지만, 자기소개서를 제출하도록 요청받은 경우 정확한 내용을 작성하여 제출하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수 4.5에 대한 긍정적인 평가를 하고 있으며, 추가 모집에 대한 여러 요소를 언급하고 있습니다. 그러나, 원문에서 제시된 각 학과의 평균 등급과 표준 편차에 대한 구체적인 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 내용과 대체로 일치합니다. 추가 모집에 대한 요인들을 언급하며, 수능 점수가 중요한 기준이라는 점도 일치합니다. 다만, 원문에서 강조한 각 학과의 평균 등급과 비교하는 부분이 다소 약해 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 매우 관련이 깊습니다. 수능 점수와 추가 모집에 대한 정보가 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 주제에 대한 흐름이 명확합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 추가 모집에 대한 정보를 정확하게 전달하고 있지만, 원문에서 제공된 구체적인 데이터(각 학과의 평균 등급 등)가 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 원문에서 제공된 구체적인 데이터의 누락으로 인해 약간의 점수를 잃었습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다. 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>0.7056720711917885</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 좋은 성적입니다. 하지만 추가모집에 들어가는 것은 여러 요소가 작용하기 때문에 확실한 답변을 드리기 어렵습니다. 
+추가모집에 들어가는 요인으로는 수능 점수, 학생부 평점, 면접 결과 등이 있습니다. 특히 동의대학교의 경우, 추가모집에서도 수능 점수가 중요한 기준 중 하나로 작용합니다.
+현재 제공된 정보만으로는 특정 모집단위에 들어갈 확률을 정확히 예측하기 어렵습니다. 하지만 4.5라는 점수는 경쟁력을 갖추고 있습니다. 추가모집에 지원할 때는 해당 단과대학의 모집단위와 전형요소를 잘 확인하고, 자기소개서와 면접 준비 등을 철저히 해야 합니다.
+만약 더 자세한 정보가 필요하다면, 동의대학교의 입학처 웹사이트나 학교 관계자에게 문의하시는 것이 좋습니다. "https://ipsi. deu.ac.kr/main.do" 링크를 통해 동의대학교의 공식 웹사이트에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 정시 모집 등급에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 평균 등급에 대한 정보가 누락되어 있습니다. 그러나, 관련 정보를 확인하기 위한 방법을 제시하고 있어 일부 사실성을 유지하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 원본 텍스트는 평균 등급에 대한 정보를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 구체적인 정보가 부족하여 다소 관련성이 떨어집니다. 그러나 정보 확인 방법을 제시하고 있어 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보 확인 방법을 제시하는 방식으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 있으며, 평균 등급에 대한 정보를 제공하지 않기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 전반적으로 원본 텍스트와의 일치성 및 정확성이 부족하여 중간 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 정보 확인 방법을 제시하고 있어 맥락에 맞는 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 확인 방법을 제시하고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>0.536522713042311</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 정시 모집 등급은 제공된 정보로 부터 확인되지 않았습니다. 관련 정보를 확인하기 위해서는 공식 홈페이지인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 확인하시거나, 대학 입학처에 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정확한 정보를 제공하지 않으며, 2023년도 평균 점수에 대한 추정이 포함되어 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 다소 불확실한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 2023년도 평균 점수에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 작년의 평균 점수에 대한 명확한 정보를 제공하고 있으나, 생성된 응답은 이를 바탕으로 한 추정으로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 2023년도 평균 점수에 대한 언급이 추가되어 있어 약간의 주제 이탈이 있습니다. 그러나 여전히 합격 가능성에 대한 논의는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 2023년도 평균 점수에 대한 언급이 추가되면서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 않으며, 2023년도 평균 점수에 대한 추정이 포함되어 있어 정확성이 떨어집니다. 원본 텍스트의 정보와는 다소 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 2023년도 평균 점수에 대한 언급이 추가되어 있어 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 이해도를 저하시킬 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>0.7526769813169973</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>2023년도에 동의대학교 신소재공학과의 최종 평균 점수가 448점이었다면, 작년에는 현재 제공된 데이터보다 약간 높은 수치를 기록했을 가능성이 있습니다. 하지만 이는 확실한 보장이 아니며, 실제 경쟁률과 모집인원 등 다양한 요인이 변동되므로 작년의 평균 점수와 완전히 동일하게 합격할 수 있는 것은 아닙니다.
+현재 제공된 데이터를 바탕으로 추정하면, 작년에도 447점 이상이면 충분히 합격 가능성이 있으나, 정확한 확률을 예측하기 위해서는 최종 발표 결과를 확인해야 합니다. 또한, 동의대학교의 입학사정관이 변경되거나 모집인원 등이 변동될 수 있으므로, 가장 신뢰할 수 있는 정보는 동의대학교 입학처 홈페이지에서 확인하는 것이 좋습니다.
+더 자세한 정보나 최신 데이터가 필요하시다면 [https://ipsi.ipsi.ipsi.ipsi]를 방문해보시거나, 직접 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있습니다. 원본에서는 4.1~4.2 등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 다소 높은 편이라고 언급하고 있지만, 생성된 응답에서는 이 성적이 합격하기 어렵다고 주장하고 있습니다. 이는 명백한 사실의 오류입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 반대로 어렵다고 말하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부 일반학생전형에 대한 정보와 지원 절차를 포함하고 있어 관련성이 높습니다. 그러나 원본의 주요 포인트인 성적 비교에 대한 해석이 잘못되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본의 사실과 크게 다르며, 특히 성적에 대한 해석이 잘못되어 있습니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으므로 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본의 맥락과 다르게 해석된 부분이 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>0.5773253496339396</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급대의 성적이면 신소재공학부 일반학생전형에 붙는 것은 어렵다고 볼 수 있습니다. 신소재공학부의 경우 보통 국어, 수학, 영어 등 주요 과목에서 높은 점수를 요구하며, 4.1~4.2등급대에서는 경쟁력이 부족할 가능성이 큽니다.
+신소재공학부 일반학생전형에 지원하려면 다음과 같은 절차와 자료가 필요합니다:
+1. **지원서 작성**: 정시 지원서를 제출해야 합니다.
+2. **성적 서류 제출**: 수능 성적, 국어, 수학, 영어 등급을 제출해야 합니다.
+3. **추천서 및 자기소개서**: 일부 학교에서는 추천서와 자기소개서도 필요할 수 있습니다.
+또한, 신소재공학부는 보통 높은 경쟁률을 가지고 있으므로, 4.1~4.2 등급대의 성적만으로는 충분히 지원이 가능하지 않을 것으로 예상됩니다. 
+이런 상황에서는 다음과 같은 대안을 고려해볼 수 있습니다:
+- **전형별 지원**: 다른 전형(예: 특기자전형, 학생부종합전형 등)에 지원해보는 것이 좋습니다.
+- **재수 준비**: 현재의 성적을 향상시키고 다시 시도하는 것도 방법입니다.
+더 자세한 정보를 얻으시려면 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적에 대한 정확한 정보를 제공하지 않고, 잘못된 등급과 점수를 제시하고 있습니다. 원본 텍스트의 정보와 일치하지 않으며, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 없습니다. 원본의 성적 정보와 생성된 응답의 성적 정보가 서로 충돌합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 성적에 대한 정보를 제공하려고 하지만, 제공된 정보가 원본 텍스트와 관련이 없고, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 일부 적절한 부분이 있지만, 전체적으로 원본 텍스트의 맥락과 맞지 않는 정보가 많아 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>0.6834613947048528</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>东义大学人工智能学部的高考普通生源招生，需要参考的分数如下：
+- **수능 영어영역 등급**: 1등급 (점수: 139)
+- **수능 국어영역 등급**: 2등급 (점수: 131)
+- **수능 수학영역 등급**: 3등급 (점수: 123)
+- **수능 사회 영역 등급**: 4등급 (점수: 115)
+- **수능 과학 영역 등급**: 5등급 (점수: 107)
+이러한 점수를 기준으로 지원하시면 됩니다. 추가로 참고할 사항은 학생부 종합 평가와 출결 상황 등이 있습니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do 를 방문해보시거나, 동의대학교 입학처에 문의하시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 추합 가능성을 여러 요인에 따라 설명하고 있으며, 모집단위와 전형방법에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 학과 목록과 평균 성적에 대한 정보는 포함되어 있지 않아 일부 세부사항이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 구체적인 학과와 성적에 대한 정보가 부족하여 일관성이 떨어질 수 있습니다. 원본 텍스트의 구체적인 데이터와 비교할 때, 일부 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 5.27 성적의 추합 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트의 구체적인 데이터와 연결되지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 일반적인 정보를 제공하고 있지만, 원본 텍스트의 구체적인 학과와 성적 평균에 대한 정보가 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 작성되었지만, 원본 텍스트의 구체적인 데이터가 누락되어 있어 전반적인 품질이 약간 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 세부사항이 부족하여 완전한 적합성은 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>0.6572590619879152</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합 가능 여부는 여러 요인에 따라 다릅니다. 주로 모집단위, 모집인원, 전형방법 등이 결정적인 역할을 합니다.
+현재 제공된 정보를 바탕으로 추론해보겠습니다:
+1. **수능 성적**: 5.27은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수입니다.
+2. **모집단위 및 모집인원**:
+   - 인문사회과학대학, 상경대학 모집단위에서는 5.27이 충분히 경쟁력을 가질 수 있습니다.
+   - 공과대학, ICT융합공과대학 모집단위에서는 수학 성적이 더 중요하므로 5.27만으로는 어려울 수 있습니다.
+따라서, 추합 가능 여부를 정확하게 판단하기 위해서는:
+1. **모집단위**: 어느 단과대학의 어느 학과에 지원하는지 확인해야 합니다.
+2. **전형방법**: 조기취업형계약학과전형인가, 일반학생전형인가 등이 중요합니다.
+3. **성적 반영 비율 및 가산점**: 각 전형별로 수능 성적이 어떻게 반영되는지 확인해야 합니다.
+예를 들어:
+- 인문사회과학대학 법학과는 5.27으로 충분히 경쟁력을 가질 수 있습니다.
+- 공과대학 응용화학과에서는 수학 성적도 중요하므로 5.27만으로는 어려울 수 있습니다.
+따라서, 정확한 판단을 위해서는 해당 모집단위와 전형방법에 대한 자세한 정보를 확인하시거나, "https://ipsi. deu. ac. kr/main. do" 링크에서 공식 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 영어 등급과 수능 4개 영역 등급 평균을 정확하게 언급하고 있지만, "정시 성적 4.2로, 이는 수능 4개 영역 등급의 평균보다 낮습니다."라는 부분은 사실과 다릅니다. 정시 성적 4.2는 수능 4개 영역 등급 평균 4.49보다 낮지 않기 때문에 이 부분에서 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소스 텍스트의 정보와 일부 일치하지만, 정시 성적이 평균보다 낮다고 언급한 부분에서 일관성이 결여되어 있습니다. 이로 인해 전체적인 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련된 정보를 제공하고 있으며, 합격 가능성에 대한 조언도 포함되어 있어 관련성이 높습니다. 그러나 일부 정보는 소스 텍스트와 직접적으로 관련이 없을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보가 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 일부 정보는 정확하지만, 정시 성적에 대한 해석에서 오류가 있어 정확성이 떨어집니다. 
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답이 평균 이상이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 의미와 맥락에 적절하게 부합하며, 전반적으로 의미 전달이 잘 이루어졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 다만, 일부 문장에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>0.6903887730606183</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원자들의 평균 수능 점수와 경쟁률을 고려해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 317.87
+- **영어 등급의 평균**: 3.77
+- **수능 4개 영역 등급의 평균**: 4.49
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 434.70
+당신이 정시 성적 4.2로, 이는 수능 4개 영역 등급의 평균보다 낮습니다. 그러나 동의대학교 소프트웨어공학부의 경쟁률은 4.87으로 높기 때문에, 단순히 성적이 낮다고 합격이 불가능하다고 할 수는 없습니다.
+**합격 가능성 증대를 위한 조언:**
+1. **영어 등급 향상**: 현재 평균 영어 등급 3.77보다 높은 점수를 얻을 수 있다면, 합격 가능성은 높아질 것입니다.
+2. **추천서 및 자기소개서 작성**: 추천서와 자기소개서는 개인의 특성을 잘 보여줄 수 있어 합격에 도움이 될 수 있습니다.
+3. **면접 준비**: 면접에서도 좋은 성적을 얻을 수 있도록 준비해보세요.
+결론적으로, 정시 성적이 4.2인 경우에도 합격 가능성은 있지만, 경쟁률이 높기 때문에 추가적인 노력이 필요합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. "https://ipsi. deu.ac.kr/main.do"</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적과 지원 가능성에 대한 정보를 제공하고 있지만, 경쟁률과 모집인원에 대한 구체적인 데이터는 제공되지 않았습니다. 그러나 주어진 성적이 평균보다 높은 점을 언급하여 합격 가능성을 높게 평가하고 있습니다. 전반적으로 사실에 기반한 정보가 포함되어 있으나, 일부 세부사항이 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 지원 가능성에 대해 논의하고 있습니다. 그러나 경쟁률과 모집인원에 대한 언급이 추가되어 원본 텍스트와의 일관성은 유지되지만, 원본의 구체적인 수치와는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원 가능성에 대한 정보를 제공하고 있습니다. 원본 텍스트의 핵심 포인트를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 지원 가능성에 대한 평가도 적절합니다. 그러나 경쟁률과 모집인원에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받고 있습니다. 그러나 일부 세부사항에서 부족함이 느껴집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 지원 가능성에 대한 적절한 해석을 제공합니다. 그러나 일부 추가 정보가 원본과의 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>0.61059932034109</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부 일반학생전형에 대한 지원 가능성은 주어진 데이터만으로는 판단하기 어렵습니다. 주요 이유 중 하나로는 지원자의 성적과 해당 학과의 경쟁률, 모집인원 등이 있습니다.
+주어진 정보를 바탕으로 다음과 같은 점을 고려해야 합니다:
+1. **경쟁률**: 화학환경공학부 일반학생전형의 경쟁률은 공개되지 않았습니다. 이는 지원 가능성을 판단하는 중요한 요소 중 하나입니다.
+2. **모집인원 및 지원인원**: 모집인원이 3명이고, 지원인원이 122명이라는 점을 고려하면 경쟁률이 높을 것으로 예상됩니다.
+3. **성적 평균**: 주어진 성적이 3.92로, 이는 일반적으로 학과의 평균 성적보다 높은 수준입니다.
+하지만, 정확한 지원 가능성 판단을 위해서는:
+- **최종 경쟁률 확인**: 동의대학교 공식 웹사이트나 입학처에서 최신 경쟁률 정보를 확인해야 합니다.
+- **모집인원 및 지원인원**: 실제 모집인원과 지원인원이 변경되지 않았는지 확인해야 합니다.
+따라서, 현재 주어진 데이터만으로는 화학환경공학부 일반학생전형에 지원 가능성을 판단하기 어렵습니다. 동의대학교 공식 웹사이트나 입학처에서 최신 정보를 확인하시거나, 직접 문의하시는 것이 가장 정확한 답변을 얻는 방법입니다.
+더 자세한 정보를 원하신다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 "4.25라는 수능 영어 등급 점수는 6등급입니다."라는 부분은 사실과 다릅니다. 4.25는 영어 등급이 아닌 수능 성적을 나타내며, 영어 등급은 4.70에 해당합니다. 또한, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 269.13이라는 정보는 출처 텍스트에 명시된 276.61과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 출처 텍스트와 여러 부분에서 일치하지 않으며, 특히 평균 점수와 등급에 대한 정보가 서로 상충합니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있습니다. 그러나 일부 정보는 불필요하게 추가되어 있어 약간의 관련성이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 대체로 이해할 수 있지만, 정보의 흐름이 매끄럽지 않고 일부 문장이 서로 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 응답에서 제공된 정보는 출처 텍스트와 여러 부분에서 부정확하며, 특히 성적과 등급에 대한 정보가 잘못되었습니다. 이는 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>0.6995860722644683</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>4.25라는 수능 영어 등급 점수는 6등급입니다. 위에서 제공된 데이터를 바탕으로, 동의대학교 공과대학 화학환경공학부에 대한 정보를 확인해보겠습니다.
+화학환경공학부의 경우:
+- 모집 인원: 101명
+- 지원 인원: 122명
+- 경쟁률: 1.21
+- 충원 합격 (후보순위): 21명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 269.13이며, 이는 상대적으로 낮은 수치입니다.
+4.25 등급을 가진 지원자의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 269.13보다 높아야 합니다. 하지만 이는 단순히 등급만으로 판단하기에는 부족합니다.
+실제로, 수능 영어 등급은 전체 점수 중 상대적으로 낮은 부분을 차지하므로, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 중요합니다. 위에서 제공된 평균 점수가 269.13이고, 지원자의 등급만으로는 충분한 정보를 얻기 어렵습니다.
+따라서, 정확한 판단을 위해서는:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 269.13 이상인지 확인해야 합니다.
+- 지원자의 전체 성적과 경쟁률 등을 고려해야 합니다.
+따라서, 정확한 답변을 위해서는 지원자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 필요합니다. 만약 해당 정보를 제공받지 못했다면, 동의대학교 입학처에 문의하시거나, 위에서 제공된 데이터와 함께 전체 성적을 분석해보시는 것이 좋습니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do를 참조하여 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.2의 성적이 영화학과에 합격할 가능성이 낮다고 주장하고 있지만, 원본 텍스트에서는 4.2의 성적이 합격 가능성이 존재한다고 명시하고 있습니다. 이로 인해 사실관계에서 큰 차이가 발생합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 4.2의 성적이 합격 가능성이 있다고 했으나, 생성된 응답에서는 낮다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 영화학과의 합격 가능성에 대한 질문에 대해 여러 요소를 고려해야 한다고 설명하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소를 고려하는 방식이 일관되게 이어집니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상반된 주장을 하고 있어 정확성에서 낮은 점수를 받습니다. 4.2의 성적이 합격 가능성이 있다고 한 원본의 내용과 모순됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실관계와 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다. 관련성은 높지만, 정확성과 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 차이로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 원본과의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>0.6981406814139841</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 영화학과를 정시로 지원하셨다면, 합격 가능성은 낮다고 볼 수 있습니다. 일반적으로 영화학과는 높은 학업성적을 요구하며, 평균 합격 점수는 4.3 이상이거나, 일부에서는 4.5 이상까지도 기록되어 있습니다.
+하지만 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **전형별 학업성적 요구**: 각 전형별로 학업성적의 비중이 다르므로, 해당 전형의 학업성적 요구를 확인해 보세요.
+2. **학교 별 평균 합격 점수**: 해당 대학에서 이전년도에 합격한 학생들의 평균 학점 등을 참고하세요.
+3. **동점자 처리 기준**: 동점자 처리 기준이 있다면, 그 기준을 확인해 보세요.
+만약 위의 요소들을 고려하여 여전히 합격 가능성에 대한 확신이 없다면, 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 다른 전형(예: 특기자전형 등)을 통해 지원하는 것도 한 방법입니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 주요 내용을 정확하게 반영하고 있으며, 추가적인 정보도 포함되어 있습니다. 그러나 원본 텍스트에 명시된 내용 외에 추가된 정보가 있어 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하는 부분이 많지만, 추가된 정보가 원본의 흐름과 완전히 일치하지 않아 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 단계가 잘 연결되어 있습니다. 그러나 추가된 정보가 원본의 흐름과 완전히 일치하지 않아 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 그러나 원본 텍스트와의 차이가 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 추가된 정보도 적절하게 연결되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 추가 정보가 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>0.7426823766834113</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+면접위원 2~3인이 평가위원이 되어 수험생 1명을 대상으로 개별적 평가를 실시하며, 지원자별로 채용기업 심층면접도 함께 진행됩니다.
+면접 시 개인신상(수험번호, 성명, 출신고교, 부모직업 등) 노출 금지 및 교복 착용 금지도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 정확하게 반영하고 있으며, 추가적으로 서류 발급 방법에 대한 정보를 제공하고 있습니다. 그러나 "부모 모두 농어촌 지역에 거주한 자는 6년과정 서류를 제출할 수 있다"는 내용은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보가 원본 텍스트와 일관되지 않아서 일관성 점수가 낮습니다. 특히, 6년 과정 서류에 대한 언급은 원본에 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류 목록을 정확히 다루고 있습니다. 추가된 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록과 추가 정보를 명확하게 연결하고 있습니다. 그러나 추가된 정보가 원본과의 연결이 약간 부족하여 점수가 다소 낮습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 6년 과정 서류에 대한 언급이 원본에 없으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있어 점수가 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미와 완전히 일치하지 않아서 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있어 점수가 다소 낮습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>0.8052977014721734</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.
+추가로 중·고등학교 재학 시 부모 모두 농어촌 지역에 거주한 자는 6년과정 서류를 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에 기회균등 전형이 존재하지 않는다는 사실을 무시하고, 저소득 기회균등 전형에 대한 정보를 제공하고 있습니다. 이는 명백한 사실과 상충하며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 담고 있어 일관성이 없습니다. 원본 텍스트는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 저소득 기회균등 전형에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 주제와는 관련이 없습니다. 원본 텍스트는 특정 전형의 부재에 대한 정보이므로, 생성된 응답은 주제와 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서는 불필요한 반복이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 부족합니다. 정보가 분리되어 있어 전체적으로 일관된 메시지를 전달하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 상반되는 내용을 포함하고 있습니다. 기회균등 전형이 존재하지 않는다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 불일치로 인해 혼란을 초래할 수 있습니다. 정보가 명확하게 전달되지 않기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>0.5049714897896929</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>2023년 정시 모집에서의 저소득 기회균등 전형에 대한 정보는 아직 공식적으로 발표되지 않았습니다. 하지만, 일반적으로 저소득 기회균등 전형은 다음과 같은 특징을 가집니다:
+1. **대상**: 저소득층 학생들을 대상으로 합니다.
+2. **평가방법**: 주로 수능 성적과 학생부 종합 평가를 통해 선발합니다.
+3. **특정전형**: 일부 대학에서는 이 전형을 특별전형으로 운영하며, 정원내외 모집을 진행할 수 있습니다.
+具体的来说，关于2023年高考特殊类型招生中的低收入机会均等选拔，请参考以下信息：
+1. **对象**：面向低收入家庭的学生。
+2. **评价方法**：主要通过高考成绩和学生综合素质评价进行选拔。
+3. **特定类型**：一些大学可能会将此类型作为单独的特殊类型招生计划，并进行校内或校外选拔。
+具体的细节和要求请参考各大学发布的最新招生简章，因为每年的具体政策可能会有所不同。建议访问“https://ipsi.deu.ac.kr/main.do”获取最新的官方信息。
+관련 정보는 각 대학이 발표하는 최신 입시 안내를 참고해야 합니다. 매년 정확한 정책은 다소 다르므로, "https://ipsi.deu.ac.kr/main.do"에서 가장 최신의 공식 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
